--- a/Code/Results/Cases/Case_5_62/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_62/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,25 +409,31 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.823802087851789</v>
+        <v>2.631304590497962</v>
       </c>
       <c r="C2">
-        <v>0.379046756196459</v>
+        <v>0.4607583653525182</v>
       </c>
       <c r="D2">
-        <v>0.2022896955737679</v>
+        <v>0.05602981889614966</v>
       </c>
       <c r="E2">
-        <v>0.07797784845083555</v>
+        <v>0.04092017866026842</v>
       </c>
       <c r="F2">
-        <v>6.572178042756661</v>
+        <v>2.210133051785107</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -439,36 +445,42 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1474055272165877</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4872333506895075</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.148626832223691</v>
       </c>
       <c r="M2">
-        <v>0.5749633515090764</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.4339476154721709</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1.802599552812922</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.56325117670039</v>
+        <v>2.278776371554557</v>
       </c>
       <c r="C3">
-        <v>0.322898549570084</v>
+        <v>0.407869942411935</v>
       </c>
       <c r="D3">
-        <v>0.1796222878598002</v>
+        <v>0.05737327633257294</v>
       </c>
       <c r="E3">
-        <v>0.06828742305388502</v>
+        <v>0.04115606295277896</v>
       </c>
       <c r="F3">
-        <v>5.797171269949501</v>
+        <v>2.007963719483087</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -480,36 +492,42 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1300298957589909</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4166355472705092</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1346677313027271</v>
       </c>
       <c r="M3">
-        <v>0.4935209697711045</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.3780006354782799</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1.648855647843561</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.40753499768681</v>
+        <v>2.065541707267982</v>
       </c>
       <c r="C4">
-        <v>0.2894068301840491</v>
+        <v>0.3756087612387091</v>
       </c>
       <c r="D4">
-        <v>0.1660067798077307</v>
+        <v>0.05826300749487601</v>
       </c>
       <c r="E4">
-        <v>0.06250729180467118</v>
+        <v>0.04131260205097931</v>
       </c>
       <c r="F4">
-        <v>5.332321080144453</v>
+        <v>1.888171434636519</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -521,36 +539,42 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1196235518457449</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.374462358216114</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1263316688378424</v>
       </c>
       <c r="M4">
-        <v>0.4448902445341361</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.344232139768053</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1.558034194904408</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.344998872130958</v>
+        <v>1.979347823169576</v>
       </c>
       <c r="C5">
-        <v>0.2759668372650879</v>
+        <v>0.3625003482481191</v>
       </c>
       <c r="D5">
-        <v>0.1605209603687427</v>
+        <v>0.05864088717797244</v>
       </c>
       <c r="E5">
-        <v>0.06018900388274062</v>
+        <v>0.04137920920153826</v>
       </c>
       <c r="F5">
-        <v>5.14524825186578</v>
+        <v>1.840340106686227</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -562,36 +586,42 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1154394235255829</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3575285474324588</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1229883752128345</v>
       </c>
       <c r="M5">
-        <v>0.4253700530390603</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.3305999506993089</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.521837474009644</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.334666181758621</v>
+        <v>1.965074731158609</v>
       </c>
       <c r="C6">
-        <v>0.2737466471108689</v>
+        <v>0.3603256005511639</v>
       </c>
       <c r="D6">
-        <v>0.1596134593665397</v>
+        <v>0.05870453088363803</v>
       </c>
       <c r="E6">
-        <v>0.05980614734223266</v>
+        <v>0.04139043589766034</v>
       </c>
       <c r="F6">
-        <v>5.114316131260949</v>
+        <v>1.832454290219445</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -603,36 +633,42 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1147478097448946</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3547307550687506</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1224363201991139</v>
       </c>
       <c r="M6">
-        <v>0.4221453699549329</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.3283436168493665</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.515873801868494</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.406688080314041</v>
+        <v>2.06437656500259</v>
       </c>
       <c r="C7">
-        <v>0.2892247794768537</v>
+        <v>0.3754318406634525</v>
       </c>
       <c r="D7">
-        <v>0.1659325593586232</v>
+        <v>0.05826804298658317</v>
       </c>
       <c r="E7">
-        <v>0.06247588299830653</v>
+        <v>0.04131348909379662</v>
       </c>
       <c r="F7">
-        <v>5.329789117267921</v>
+        <v>1.887522510939604</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -644,36 +680,42 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1195669060543914</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3742330157563671</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1262863692557588</v>
       </c>
       <c r="M7">
-        <v>0.4446258453704885</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.3440477925871832</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1.557542846997691</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.732982048519915</v>
+        <v>2.509016421389163</v>
       </c>
       <c r="C8">
-        <v>0.3594576929010316</v>
+        <v>0.4424687539692798</v>
       </c>
       <c r="D8">
-        <v>0.1944026776024543</v>
+        <v>0.05647895409575909</v>
       </c>
       <c r="E8">
-        <v>0.07459781329760062</v>
+        <v>0.04099900119555633</v>
       </c>
       <c r="F8">
-        <v>6.302410068330175</v>
+        <v>2.139457337496353</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -685,36 +727,42 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1413539550180438</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4626200008829784</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1437616275106848</v>
       </c>
       <c r="M8">
-        <v>0.5465656032133737</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.4145247946100952</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1.748792077775477</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.41458294894386</v>
+        <v>3.411946295080838</v>
       </c>
       <c r="C9">
-        <v>0.5070319270331538</v>
+        <v>0.5763811921728461</v>
       </c>
       <c r="D9">
-        <v>0.2533235870412085</v>
+        <v>0.05353545286715899</v>
       </c>
       <c r="E9">
-        <v>0.1000026823184044</v>
+        <v>0.04048171190608829</v>
       </c>
       <c r="F9">
-        <v>8.318220643290772</v>
+        <v>2.673249044328429</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -726,36 +774,42 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1866464859096872</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.6475048968600632</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1801610591531784</v>
       </c>
       <c r="M9">
-        <v>0.7599016478923915</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.5582551194900276</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>2.156506372071959</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.953777272623199</v>
+        <v>4.102772642026423</v>
       </c>
       <c r="C10">
-        <v>0.624836174385706</v>
+        <v>0.6774751164346924</v>
       </c>
       <c r="D10">
-        <v>0.2996241603106427</v>
+        <v>0.05179722011906307</v>
       </c>
       <c r="E10">
-        <v>0.1201306019219004</v>
+        <v>0.04017289560445603</v>
       </c>
       <c r="F10">
-        <v>9.899854235971475</v>
+        <v>3.097933294403703</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -767,36 +821,42 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2222807785731149</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.7940698856254826</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2086184538820959</v>
       </c>
       <c r="M10">
-        <v>0.9289616444886732</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.6686285350328518</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>2.482657468168355</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.211004136807333</v>
+        <v>4.425212144741522</v>
       </c>
       <c r="C11">
-        <v>0.681410702000278</v>
+        <v>0.724369809374025</v>
       </c>
       <c r="D11">
-        <v>0.3216507884722688</v>
+        <v>0.05111983593043945</v>
       </c>
       <c r="E11">
-        <v>0.1297332402190143</v>
+        <v>0.0400507821941829</v>
       </c>
       <c r="F11">
-        <v>10.65067771663433</v>
+        <v>3.300319448950262</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -808,36 +868,42 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2392209469748323</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.8640982523584668</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2220433373210113</v>
       </c>
       <c r="M11">
-        <v>1.009690581741992</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.7202392654339747</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>2.638528288583316</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.310496632600973</v>
+        <v>4.548699460281853</v>
       </c>
       <c r="C12">
-        <v>0.7033615537565652</v>
+        <v>0.742288629223367</v>
       </c>
       <c r="D12">
-        <v>0.3301620434652079</v>
+        <v>0.05088174079056529</v>
       </c>
       <c r="E12">
-        <v>0.133446818182005</v>
+        <v>0.04000747882653433</v>
       </c>
       <c r="F12">
-        <v>10.94046575092841</v>
+        <v>3.378484584186765</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -849,36 +915,42 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.245762913639048</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0.8912042024167164</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2272061171582749</v>
       </c>
       <c r="M12">
-        <v>1.040928000587996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.740019141264618</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>2.698796888963386</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.288969711832635</v>
+        <v>4.522038942202528</v>
       </c>
       <c r="C13">
-        <v>0.6986088160831798</v>
+        <v>0.7384218070048405</v>
       </c>
       <c r="D13">
-        <v>0.3283208528103785</v>
+        <v>0.05093216256840805</v>
       </c>
       <c r="E13">
-        <v>0.1326433611883395</v>
+        <v>0.04001666900840894</v>
       </c>
       <c r="F13">
-        <v>10.87779426819191</v>
+        <v>3.361578926202554</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -890,36 +962,42 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2443479342388741</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0.8853384121955656</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2260905284130104</v>
       </c>
       <c r="M13">
-        <v>1.034168676636796</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.7357480957667306</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>2.685758793581556</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.219145265229258</v>
+        <v>4.435342428631259</v>
       </c>
       <c r="C14">
-        <v>0.6832054109707144</v>
+        <v>0.7258405886334174</v>
       </c>
       <c r="D14">
-        <v>0.3223474001882778</v>
+        <v>0.05109986533236821</v>
       </c>
       <c r="E14">
-        <v>0.1300371261983706</v>
+        <v>0.04004715882487919</v>
       </c>
       <c r="F14">
-        <v>10.67440301907862</v>
+        <v>3.306718297875847</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -931,36 +1009,42 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2397564697803247</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0.8663158195640932</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2224664350743808</v>
       </c>
       <c r="M14">
-        <v>1.012246378834838</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.7218616237482394</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>2.64346067490456</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.176659622327861</v>
+        <v>4.382425589457114</v>
       </c>
       <c r="C15">
-        <v>0.6738422990856066</v>
+        <v>0.718156149278343</v>
       </c>
       <c r="D15">
-        <v>0.3187116983167755</v>
+        <v>0.05120505474171111</v>
       </c>
       <c r="E15">
-        <v>0.1284512246443086</v>
+        <v>0.04006622707102614</v>
       </c>
       <c r="F15">
-        <v>10.55056365337828</v>
+        <v>3.273319796745312</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -972,36 +1056,42 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2369613436338582</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0.8547439455775887</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2202571926997763</v>
       </c>
       <c r="M15">
-        <v>0.9989090887036411</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.7133875960698433</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>2.617719085322079</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.93723719700796</v>
+        <v>4.081882405184615</v>
       </c>
       <c r="C16">
-        <v>0.6212069096926314</v>
+        <v>0.6744311884486081</v>
       </c>
       <c r="D16">
-        <v>0.2982066413305517</v>
+        <v>0.05184394328518849</v>
       </c>
       <c r="E16">
-        <v>0.1195130929187371</v>
+        <v>0.04018126986570314</v>
       </c>
       <c r="F16">
-        <v>9.851494902220509</v>
+        <v>3.084908724341858</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1013,36 +1103,42 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2211901876319189</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0.7895694284295445</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2077515906677547</v>
       </c>
       <c r="M16">
-        <v>0.9237722804479063</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.6652866989532384</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>2.472635524593869</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.793659805622724</v>
+        <v>3.899744970341885</v>
       </c>
       <c r="C17">
-        <v>0.5897452357763768</v>
+        <v>0.6478599085643566</v>
       </c>
       <c r="D17">
-        <v>0.2858951361333197</v>
+        <v>0.05226631935100201</v>
       </c>
       <c r="E17">
-        <v>0.1141527387130985</v>
+        <v>0.04025674532003332</v>
       </c>
       <c r="F17">
-        <v>9.431294630786738</v>
+        <v>2.971816517832451</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1054,36 +1150,42 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2117165677810959</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.7505151263725836</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2002094218071591</v>
       </c>
       <c r="M17">
-        <v>0.8787341968201758</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.6361604428005592</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>2.385663820895289</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.712176467492611</v>
+        <v>3.795740090535617</v>
       </c>
       <c r="C18">
-        <v>0.5719233777777504</v>
+        <v>0.6326600867106151</v>
       </c>
       <c r="D18">
-        <v>0.2789024494108503</v>
+        <v>0.05251978353739162</v>
       </c>
       <c r="E18">
-        <v>0.11111070777892</v>
+        <v>0.0403018652469147</v>
       </c>
       <c r="F18">
-        <v>9.192488695495797</v>
+        <v>2.907620724162939</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1095,36 +1197,42 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2063347617581357</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0.728360583558981</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1959158197814332</v>
       </c>
       <c r="M18">
-        <v>0.853181103834018</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.6195373767847272</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>2.33633517886085</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.684766157567026</v>
+        <v>3.76064965745303</v>
       </c>
       <c r="C19">
-        <v>0.5659335889145325</v>
+        <v>0.6275271301376506</v>
       </c>
       <c r="D19">
-        <v>0.276549186400203</v>
+        <v>0.0526073503854434</v>
       </c>
       <c r="E19">
-        <v>0.1100874271683239</v>
+        <v>0.04031742726426923</v>
       </c>
       <c r="F19">
-        <v>9.112101579325326</v>
+        <v>2.886025654604339</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1136,36 +1244,42 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2045235008713426</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0.7209095240990351</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1944694269402163</v>
       </c>
       <c r="M19">
-        <v>0.8445864289243161</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.613930368839263</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>2.319748068240884</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.808827713932033</v>
+        <v>3.919054156813672</v>
       </c>
       <c r="C20">
-        <v>0.5930653701162214</v>
+        <v>0.6506796406821422</v>
       </c>
       <c r="D20">
-        <v>0.2871963401876627</v>
+        <v>0.05222025311827139</v>
       </c>
       <c r="E20">
-        <v>0.1147190163562541</v>
+        <v>0.0402485320213013</v>
       </c>
       <c r="F20">
-        <v>9.475720959383835</v>
+        <v>2.983765821202581</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1177,36 +1291,42 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2127179514571651</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.7546398999908419</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2010076284610705</v>
       </c>
       <c r="M20">
-        <v>0.8834914054008181</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.639247335008065</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>2.394849032851681</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.23959448268414</v>
+        <v>4.460767851856474</v>
       </c>
       <c r="C21">
-        <v>0.6877145728093979</v>
+        <v>0.7295313687576197</v>
       </c>
       <c r="D21">
-        <v>0.3240970459604853</v>
+        <v>0.05105008867465344</v>
       </c>
       <c r="E21">
-        <v>0.130800427007415</v>
+        <v>0.04003812085561753</v>
       </c>
       <c r="F21">
-        <v>10.73398700465981</v>
+        <v>3.32278902489648</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1218,36 +1338,42 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2411014478662423</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0.8718863236407657</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2235286861264569</v>
       </c>
       <c r="M21">
-        <v>1.018666334218338</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.72593371417436</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>2.655849481669364</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.53351221306383</v>
+        <v>4.823009246733761</v>
       </c>
       <c r="C22">
-        <v>0.7527077387291286</v>
+        <v>0.7820202828645222</v>
       </c>
       <c r="D22">
-        <v>0.3492254121605356</v>
+        <v>0.05039388921706234</v>
       </c>
       <c r="E22">
-        <v>0.1417689094246519</v>
+        <v>0.03991790931844275</v>
       </c>
       <c r="F22">
-        <v>11.5887913129414</v>
+        <v>3.553369187285966</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1259,36 +1385,42 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2604059770645222</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0.9520041870189146</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.238714043246631</v>
       </c>
       <c r="M22">
-        <v>1.110971575915038</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.7839833858037437</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>2.833770618641935</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.375367963352232</v>
+        <v>4.628846820221383</v>
       </c>
       <c r="C23">
-        <v>0.7176949958184764</v>
+        <v>0.7539073763871613</v>
       </c>
       <c r="D23">
-        <v>0.3357092889027911</v>
+        <v>0.05073339296389534</v>
       </c>
       <c r="E23">
-        <v>0.1358678849200778</v>
+        <v>0.03998037287592382</v>
       </c>
       <c r="F23">
-        <v>11.1292290901186</v>
+        <v>3.429405340730852</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1300,36 +1432,42 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2500253188983805</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0.9088839436982568</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2305629490112864</v>
       </c>
       <c r="M23">
-        <v>1.061299083509333</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.7528608993107682</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>2.738078585857195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.801967023960685</v>
+        <v>3.91032228276481</v>
       </c>
       <c r="C24">
-        <v>0.5915635163530624</v>
+        <v>0.6494046041885611</v>
       </c>
       <c r="D24">
-        <v>0.2866078022474596</v>
+        <v>0.05224104669345664</v>
       </c>
       <c r="E24">
-        <v>0.1144628795031046</v>
+        <v>0.04025223989273163</v>
       </c>
       <c r="F24">
-        <v>9.455627249728138</v>
+        <v>2.978360994531698</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1341,36 +1479,42 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2122650259657632</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0.7527741683682123</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.20064662762978</v>
       </c>
       <c r="M24">
-        <v>0.8813396212260542</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.6378513735661926</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>2.390694315858568</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.224506126996232</v>
+        <v>3.16353788714315</v>
       </c>
       <c r="C25">
-        <v>0.4657395419365287</v>
+        <v>0.5397753152579128</v>
       </c>
       <c r="D25">
-        <v>0.2369469335212671</v>
+        <v>0.05426365600242278</v>
       </c>
       <c r="E25">
-        <v>0.09291114948441859</v>
+        <v>0.04061000902879308</v>
       </c>
       <c r="F25">
-        <v>7.758028306580115</v>
+        <v>2.523790193203709</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1382,16 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1740441157260513</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5959061122619431</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.170045766890027</v>
       </c>
       <c r="M25">
-        <v>0.7003628546611154</v>
+        <v>0.5186451160885568</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>2.042065880002696</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_62/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_62/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.631304590497962</v>
+        <v>1.370256532119612</v>
       </c>
       <c r="C2">
-        <v>0.4607583653525182</v>
+        <v>0.2090971500087306</v>
       </c>
       <c r="D2">
-        <v>0.05602981889614966</v>
+        <v>0.01835943391790096</v>
       </c>
       <c r="E2">
-        <v>0.04092017866026842</v>
+        <v>0.05204792301392303</v>
       </c>
       <c r="F2">
-        <v>2.210133051785107</v>
+        <v>2.348194929041384</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.1086253004579945</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.485937312532826</v>
       </c>
       <c r="L2">
-        <v>0.148626832223691</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4339476154721709</v>
+        <v>0.4001213000551758</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>2.215257964055809</v>
       </c>
       <c r="O2">
-        <v>1.802599552812922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.278776371554557</v>
+        <v>1.201811652937607</v>
       </c>
       <c r="C3">
-        <v>0.407869942411935</v>
+        <v>0.1820878998638022</v>
       </c>
       <c r="D3">
-        <v>0.05737327633257294</v>
+        <v>0.01593936749046065</v>
       </c>
       <c r="E3">
-        <v>0.04115606295277896</v>
+        <v>0.04784148713331859</v>
       </c>
       <c r="F3">
-        <v>2.007963719483087</v>
+        <v>2.224001126244346</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.1023287823067704</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.301152970872465</v>
       </c>
       <c r="L3">
-        <v>0.1346677313027271</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3780006354782799</v>
+        <v>0.3538460444807043</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>2.219152828798727</v>
       </c>
       <c r="O3">
-        <v>1.648855647843561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.065541707267982</v>
+        <v>1.100122715241326</v>
       </c>
       <c r="C4">
-        <v>0.3756087612387091</v>
+        <v>0.1657883525056292</v>
       </c>
       <c r="D4">
-        <v>0.05826300749487601</v>
+        <v>0.01446194440013571</v>
       </c>
       <c r="E4">
-        <v>0.04131260205097931</v>
+        <v>0.0453260581961068</v>
       </c>
       <c r="F4">
-        <v>1.888171434636519</v>
+        <v>2.151081491561058</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.09861347220264349</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.189606657086927</v>
       </c>
       <c r="L4">
-        <v>0.1263316688378424</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.344232139768053</v>
+        <v>0.3259606563003459</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>2.223601724025656</v>
       </c>
       <c r="O4">
-        <v>1.558034194904408</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.979347823169576</v>
+        <v>1.059074334784952</v>
       </c>
       <c r="C5">
-        <v>0.3625003482481191</v>
+        <v>0.1592093627524633</v>
       </c>
       <c r="D5">
-        <v>0.05864088717797244</v>
+        <v>0.0138617688875371</v>
       </c>
       <c r="E5">
-        <v>0.04137920920153826</v>
+        <v>0.04431676575994636</v>
       </c>
       <c r="F5">
-        <v>1.840340106686227</v>
+        <v>2.122147918986926</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.09713484940384376</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.144579643714991</v>
       </c>
       <c r="L5">
-        <v>0.1229883752128345</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3305999506993089</v>
+        <v>0.3147169766998346</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>2.225908141604975</v>
       </c>
       <c r="O5">
-        <v>1.521837474009644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.965074731158609</v>
+        <v>1.052280591847591</v>
       </c>
       <c r="C6">
-        <v>0.3603256005511639</v>
+        <v>0.158120513645656</v>
       </c>
       <c r="D6">
-        <v>0.05870453088363803</v>
+        <v>0.01376221713257664</v>
       </c>
       <c r="E6">
-        <v>0.04139043589766034</v>
+        <v>0.0441500930355474</v>
       </c>
       <c r="F6">
-        <v>1.832454290219445</v>
+        <v>2.117389144325941</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.09689139268008518</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.137127407897566</v>
       </c>
       <c r="L6">
-        <v>0.1224363201991139</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3283436168493665</v>
+        <v>0.3128568506250744</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>2.226320257195326</v>
       </c>
       <c r="O6">
-        <v>1.515873801868494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.06437656500259</v>
+        <v>1.099567599150788</v>
       </c>
       <c r="C7">
-        <v>0.3754318406634525</v>
+        <v>0.1656993805185181</v>
       </c>
       <c r="D7">
-        <v>0.05826804298658317</v>
+        <v>0.01445384290486018</v>
       </c>
       <c r="E7">
-        <v>0.04131348909379662</v>
+        <v>0.0453123841791836</v>
       </c>
       <c r="F7">
-        <v>1.887522510939604</v>
+        <v>2.150688190479585</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.09859339086386854</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.188997735808584</v>
       </c>
       <c r="L7">
-        <v>0.1262863692557588</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3440477925871832</v>
+        <v>0.3258085512491462</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>2.223630861544052</v>
       </c>
       <c r="O7">
-        <v>1.557542846997691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.509016421389163</v>
+        <v>1.311787464295918</v>
       </c>
       <c r="C8">
-        <v>0.4424687539692798</v>
+        <v>0.1997201943627545</v>
       </c>
       <c r="D8">
-        <v>0.05647895409575909</v>
+        <v>0.01752306987527419</v>
       </c>
       <c r="E8">
-        <v>0.04099900119555633</v>
+        <v>0.05058283865134072</v>
       </c>
       <c r="F8">
-        <v>2.139457337496353</v>
+        <v>2.304644915715443</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.1064213951472581</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.421794476339954</v>
       </c>
       <c r="L8">
-        <v>0.1437616275106848</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4145247946100952</v>
+        <v>0.3840480008078444</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>2.216158964724031</v>
       </c>
       <c r="O8">
-        <v>1.748792077775477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.411946295080838</v>
+        <v>1.744001198977713</v>
       </c>
       <c r="C9">
-        <v>0.5763811921728461</v>
+        <v>0.2690987976740473</v>
       </c>
       <c r="D9">
-        <v>0.05353545286715899</v>
+        <v>0.02362213087186404</v>
       </c>
       <c r="E9">
-        <v>0.04048171190608829</v>
+        <v>0.0615099285918852</v>
       </c>
       <c r="F9">
-        <v>2.673249044328429</v>
+        <v>2.635827112510583</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.123092189575388</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.896031766440842</v>
       </c>
       <c r="L9">
-        <v>0.1801610591531784</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5582551194900276</v>
+        <v>0.5030777246077847</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>2.219004183503117</v>
       </c>
       <c r="O9">
-        <v>2.156506372071959</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.102772642026423</v>
+        <v>2.074809711298826</v>
       </c>
       <c r="C10">
-        <v>0.6774751164346924</v>
+        <v>0.3223235305642049</v>
       </c>
       <c r="D10">
-        <v>0.05179722011906307</v>
+        <v>0.02817214430111648</v>
       </c>
       <c r="E10">
-        <v>0.04017289560445603</v>
+        <v>0.06998653653564801</v>
       </c>
       <c r="F10">
-        <v>3.097933294403703</v>
+        <v>2.901281743722791</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1363340973802067</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>2.259171139551654</v>
       </c>
       <c r="L10">
-        <v>0.2086184538820959</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.6686285350328518</v>
+        <v>0.5944401699269193</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>2.233553517227861</v>
       </c>
       <c r="O10">
-        <v>2.482657468168355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.425212144741522</v>
+        <v>2.22904782917368</v>
       </c>
       <c r="C11">
-        <v>0.724369809374025</v>
+        <v>0.3471834304223194</v>
       </c>
       <c r="D11">
-        <v>0.05111983593043945</v>
+        <v>0.03026209435329008</v>
       </c>
       <c r="E11">
-        <v>0.0400507821941829</v>
+        <v>0.07396188241212798</v>
       </c>
       <c r="F11">
-        <v>3.300319448950262</v>
+        <v>3.027919582451744</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.1426210397056735</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2.42854379703877</v>
       </c>
       <c r="L11">
-        <v>0.2220433373210113</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.7202392654339747</v>
+        <v>0.6370944072069236</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>2.243326385097703</v>
       </c>
       <c r="O11">
-        <v>2.638528288583316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.548699460281853</v>
+        <v>2.288073533839395</v>
       </c>
       <c r="C12">
-        <v>0.742288629223367</v>
+        <v>0.3567050916563232</v>
       </c>
       <c r="D12">
-        <v>0.05088174079056529</v>
+        <v>0.03105686016381526</v>
       </c>
       <c r="E12">
-        <v>0.04000747882653433</v>
+        <v>0.07548640225603265</v>
       </c>
       <c r="F12">
-        <v>3.378484584186765</v>
+        <v>3.076819389473371</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1450439507484944</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>2.493372345274793</v>
       </c>
       <c r="L12">
-        <v>0.2272061171582749</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.740019141264618</v>
+        <v>0.6534260539852426</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>2.24752289299883</v>
       </c>
       <c r="O12">
-        <v>2.698796888963386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.522038942202528</v>
+        <v>2.275332401044295</v>
       </c>
       <c r="C13">
-        <v>0.7384218070048405</v>
+        <v>0.3546493888730424</v>
       </c>
       <c r="D13">
-        <v>0.05093216256840805</v>
+        <v>0.03088553653027759</v>
       </c>
       <c r="E13">
-        <v>0.04001666900840894</v>
+        <v>0.07515718442743591</v>
       </c>
       <c r="F13">
-        <v>3.361578926202554</v>
+        <v>3.066244229295393</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.1445201833565832</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>2.47937809947399</v>
       </c>
       <c r="L13">
-        <v>0.2260905284130104</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.7357480957667306</v>
+        <v>0.6499003829013361</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>2.246596331464531</v>
       </c>
       <c r="O13">
-        <v>2.685758793581556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.435342428631259</v>
+        <v>2.233891016372638</v>
       </c>
       <c r="C14">
-        <v>0.7258405886334174</v>
+        <v>0.3479645341167554</v>
       </c>
       <c r="D14">
-        <v>0.05109986533236821</v>
+        <v>0.03032741036663111</v>
       </c>
       <c r="E14">
-        <v>0.04004715882487919</v>
+        <v>0.07408690982177291</v>
       </c>
       <c r="F14">
-        <v>3.306718297875847</v>
+        <v>3.03192305845792</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1428195021481926</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>2.433862886958366</v>
       </c>
       <c r="L14">
-        <v>0.2224664350743808</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.7218616237482394</v>
+        <v>0.6384342901758089</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>2.243661441251106</v>
       </c>
       <c r="O14">
-        <v>2.64346067490456</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.382425589457114</v>
+        <v>2.208590098608965</v>
       </c>
       <c r="C15">
-        <v>0.718156149278343</v>
+        <v>0.3438843620053262</v>
       </c>
       <c r="D15">
-        <v>0.05120505474171111</v>
+        <v>0.02998599213334074</v>
       </c>
       <c r="E15">
-        <v>0.04006622707102614</v>
+        <v>0.07343389110023679</v>
       </c>
       <c r="F15">
-        <v>3.273319796745312</v>
+        <v>3.011026512287657</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1417834158778604</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>2.406076298526955</v>
       </c>
       <c r="L15">
-        <v>0.2202571926997763</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.7133875960698433</v>
+        <v>0.6314350420191559</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>2.241929624603515</v>
       </c>
       <c r="O15">
-        <v>2.617719085322079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.081882405184615</v>
+        <v>2.064811997640504</v>
       </c>
       <c r="C16">
-        <v>0.6744311884486081</v>
+        <v>0.3207131246658435</v>
       </c>
       <c r="D16">
-        <v>0.05184394328518849</v>
+        <v>0.02803600377901461</v>
       </c>
       <c r="E16">
-        <v>0.04018126986570314</v>
+        <v>0.0697293043062146</v>
       </c>
       <c r="F16">
-        <v>3.084908724341858</v>
+        <v>2.893132244308106</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.135928887034467</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>2.248193796730021</v>
       </c>
       <c r="L16">
-        <v>0.2077515906677547</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.6652866989532384</v>
+        <v>0.5916764582854697</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>2.23298181092639</v>
       </c>
       <c r="O16">
-        <v>2.472635524593869</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.899744970341885</v>
+        <v>1.977623762967369</v>
       </c>
       <c r="C17">
-        <v>0.6478599085643566</v>
+        <v>0.3066741231513674</v>
       </c>
       <c r="D17">
-        <v>0.05226631935100201</v>
+        <v>0.02684521137298645</v>
       </c>
       <c r="E17">
-        <v>0.04025674532003332</v>
+        <v>0.06748856771714884</v>
       </c>
       <c r="F17">
-        <v>2.971816517832451</v>
+        <v>2.822381552000962</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1324076703563577</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>2.152469326671621</v>
       </c>
       <c r="L17">
-        <v>0.2002094218071591</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.6361604428005592</v>
+        <v>0.5675809123682498</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>2.228329106381835</v>
       </c>
       <c r="O17">
-        <v>2.385663820895289</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.795740090535617</v>
+        <v>1.927823292987114</v>
       </c>
       <c r="C18">
-        <v>0.6326600867106151</v>
+        <v>0.2986592614487904</v>
       </c>
       <c r="D18">
-        <v>0.05251978353739162</v>
+        <v>0.02616216361352031</v>
       </c>
       <c r="E18">
-        <v>0.0403018652469147</v>
+        <v>0.06621085364133705</v>
       </c>
       <c r="F18">
-        <v>2.907620724162939</v>
+        <v>2.782234677107979</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.1304068416658168</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>2.097798555134659</v>
       </c>
       <c r="L18">
-        <v>0.1959158197814332</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.6195373767847272</v>
+        <v>0.5538232095640367</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>2.225947115471072</v>
       </c>
       <c r="O18">
-        <v>2.33633517886085</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.76064965745303</v>
+        <v>1.911019168319427</v>
       </c>
       <c r="C19">
-        <v>0.6275271301376506</v>
+        <v>0.2959554522410883</v>
       </c>
       <c r="D19">
-        <v>0.0526073503854434</v>
+        <v>0.02593120258022452</v>
       </c>
       <c r="E19">
-        <v>0.04031742726426923</v>
+        <v>0.06578009036670096</v>
       </c>
       <c r="F19">
-        <v>2.886025654604339</v>
+        <v>2.768732738588966</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.1297334750704522</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>2.079351921411501</v>
       </c>
       <c r="L19">
-        <v>0.1944694269402163</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.613930368839263</v>
+        <v>0.5491818656681744</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>2.225189918040726</v>
       </c>
       <c r="O19">
-        <v>2.319748068240884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.919054156813672</v>
+        <v>1.986868543005983</v>
       </c>
       <c r="C20">
-        <v>0.6506796406821422</v>
+        <v>0.3081622881349517</v>
       </c>
       <c r="D20">
-        <v>0.05222025311827139</v>
+        <v>0.02697177715472776</v>
       </c>
       <c r="E20">
-        <v>0.0402485320213013</v>
+        <v>0.06772593554252992</v>
       </c>
       <c r="F20">
-        <v>2.983765821202581</v>
+        <v>2.829855781166458</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.1327799460369903</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>2.162618642877845</v>
       </c>
       <c r="L20">
-        <v>0.2010076284610705</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.639247335008065</v>
+        <v>0.5701352741833929</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>2.228793663217957</v>
       </c>
       <c r="O20">
-        <v>2.394849032851681</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.460767851856474</v>
+        <v>2.24604587798666</v>
       </c>
       <c r="C21">
-        <v>0.7295313687576197</v>
+        <v>0.3499249889700025</v>
       </c>
       <c r="D21">
-        <v>0.05105008867465344</v>
+        <v>0.03049125086002391</v>
       </c>
       <c r="E21">
-        <v>0.04003812085561753</v>
+        <v>0.07440073904218281</v>
       </c>
       <c r="F21">
-        <v>3.32278902489648</v>
+        <v>3.041977534322484</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.1433178517374358</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>2.447212295965414</v>
       </c>
       <c r="L21">
-        <v>0.2235286861264569</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.72593371417436</v>
+        <v>0.6417971014497965</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>2.244509676788454</v>
       </c>
       <c r="O21">
-        <v>2.655849481669364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.823009246733761</v>
+        <v>2.419084888494353</v>
       </c>
       <c r="C22">
-        <v>0.7820202828645222</v>
+        <v>0.3778554073203964</v>
       </c>
       <c r="D22">
-        <v>0.05039388921706234</v>
+        <v>0.03281118589426768</v>
       </c>
       <c r="E22">
-        <v>0.03991790931844275</v>
+        <v>0.07887575971322747</v>
       </c>
       <c r="F22">
-        <v>3.553369187285966</v>
+        <v>3.186172258537738</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.1504532089727562</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2.637286063018792</v>
       </c>
       <c r="L22">
-        <v>0.238714043246631</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.7839833858037437</v>
+        <v>0.689690067754583</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>2.257693506423891</v>
       </c>
       <c r="O22">
-        <v>2.833770618641935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.628846820221383</v>
+        <v>2.326368043846287</v>
       </c>
       <c r="C23">
-        <v>0.7539073763871613</v>
+        <v>0.3628849529063416</v>
       </c>
       <c r="D23">
-        <v>0.05073339296389534</v>
+        <v>0.03157102267834944</v>
       </c>
       <c r="E23">
-        <v>0.03998037287592382</v>
+        <v>0.07647633852743851</v>
       </c>
       <c r="F23">
-        <v>3.429405340730852</v>
+        <v>3.10866843381325</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.1466206645293511</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>2.53543495204309</v>
       </c>
       <c r="L23">
-        <v>0.2305629490112864</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.7528608993107682</v>
+        <v>0.6640239251225495</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>2.250375397941525</v>
       </c>
       <c r="O23">
-        <v>2.738078585857195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.91032228276481</v>
+        <v>1.982687970913275</v>
       </c>
       <c r="C24">
-        <v>0.6494046041885611</v>
+        <v>0.307489314321316</v>
       </c>
       <c r="D24">
-        <v>0.05224104669345664</v>
+        <v>0.02691455195606807</v>
       </c>
       <c r="E24">
-        <v>0.04025223989273163</v>
+        <v>0.0676185889438301</v>
       </c>
       <c r="F24">
-        <v>2.978360994531698</v>
+        <v>2.826475042923889</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.132611567122666</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>2.158029014586077</v>
       </c>
       <c r="L24">
-        <v>0.20064662762978</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.6378513735661926</v>
+        <v>0.5689801524954632</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>2.228582727850608</v>
       </c>
       <c r="O24">
-        <v>2.390694315858568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.16353788714315</v>
+        <v>1.625017894742967</v>
       </c>
       <c r="C25">
-        <v>0.5397753152579128</v>
+        <v>0.2499836425149624</v>
       </c>
       <c r="D25">
-        <v>0.05426365600242278</v>
+        <v>0.02196161995556167</v>
       </c>
       <c r="E25">
-        <v>0.04061000902879308</v>
+        <v>0.0584819219635655</v>
       </c>
       <c r="F25">
-        <v>2.523790193203709</v>
+        <v>2.542680823807032</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.1184224914991958</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.765458510306956</v>
       </c>
       <c r="L25">
-        <v>0.170045766890027</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.5186451160885568</v>
+        <v>0.4702658312069516</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>2.216186645003432</v>
       </c>
       <c r="O25">
-        <v>2.042065880002696</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_62/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_62/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.370256532119612</v>
+        <v>1.040936523214157</v>
       </c>
       <c r="C2">
-        <v>0.2090971500087306</v>
+        <v>0.1440678763281937</v>
       </c>
       <c r="D2">
-        <v>0.01835943391790096</v>
+        <v>0.03147556612577418</v>
       </c>
       <c r="E2">
-        <v>0.05204792301392303</v>
+        <v>0.09419238487479475</v>
       </c>
       <c r="F2">
-        <v>2.348194929041384</v>
+        <v>3.472502459719323</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1086253004579945</v>
+        <v>0.1843251799547474</v>
       </c>
       <c r="K2">
-        <v>1.485937312532826</v>
+        <v>1.106647970836462</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4001213000551758</v>
+        <v>0.3884562439538328</v>
       </c>
       <c r="N2">
-        <v>2.215257964055809</v>
+        <v>3.608084878746723</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.201811652937607</v>
+        <v>1.002616785891206</v>
       </c>
       <c r="C3">
-        <v>0.1820878998638022</v>
+        <v>0.1380182215032733</v>
       </c>
       <c r="D3">
-        <v>0.01593936749046065</v>
+        <v>0.03117916304550405</v>
       </c>
       <c r="E3">
-        <v>0.04784148713331859</v>
+        <v>0.09372680780215248</v>
       </c>
       <c r="F3">
-        <v>2.224001126244346</v>
+        <v>3.45337420963719</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1023287823067704</v>
+        <v>0.1836150428678209</v>
       </c>
       <c r="K3">
-        <v>1.301152970872465</v>
+        <v>1.064745862659947</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3538460444807043</v>
+        <v>0.3789740781784801</v>
       </c>
       <c r="N3">
-        <v>2.219152828798727</v>
+        <v>3.612708044780433</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.100122715241326</v>
+        <v>0.9797222471347311</v>
       </c>
       <c r="C4">
-        <v>0.1657883525056292</v>
+        <v>0.134397175520732</v>
       </c>
       <c r="D4">
-        <v>0.01446194440013571</v>
+        <v>0.03101622485735689</v>
       </c>
       <c r="E4">
-        <v>0.0453260581961068</v>
+        <v>0.09348286438032893</v>
       </c>
       <c r="F4">
-        <v>2.151081491561058</v>
+        <v>3.44299368482848</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09861347220264349</v>
+        <v>0.1832525573497392</v>
       </c>
       <c r="K4">
-        <v>1.189606657086927</v>
+        <v>1.039701203945185</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3259606563003459</v>
+        <v>0.3733789150369162</v>
       </c>
       <c r="N4">
-        <v>2.223601724025656</v>
+        <v>3.61631952472267</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.059074334784952</v>
+        <v>0.9705518261576458</v>
       </c>
       <c r="C5">
-        <v>0.1592093627524633</v>
+        <v>0.1329450154809848</v>
       </c>
       <c r="D5">
-        <v>0.0138617688875371</v>
+        <v>0.03095464164427497</v>
       </c>
       <c r="E5">
-        <v>0.04431676575994636</v>
+        <v>0.09339401245362744</v>
       </c>
       <c r="F5">
-        <v>2.122147918986926</v>
+        <v>3.439106426931801</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.09713484940384376</v>
+        <v>0.1831233378920061</v>
       </c>
       <c r="K5">
-        <v>1.144579643714991</v>
+        <v>1.029666963550596</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3147169766998346</v>
+        <v>0.3711558974215379</v>
       </c>
       <c r="N5">
-        <v>2.225908141604975</v>
+        <v>3.617985388974688</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.052280591847591</v>
+        <v>0.9690387021591391</v>
       </c>
       <c r="C6">
-        <v>0.158120513645656</v>
+        <v>0.1327052998250053</v>
       </c>
       <c r="D6">
-        <v>0.01376221713257664</v>
+        <v>0.03094470734930255</v>
       </c>
       <c r="E6">
-        <v>0.0441500930355474</v>
+        <v>0.09337989672776992</v>
       </c>
       <c r="F6">
-        <v>2.117389144325941</v>
+        <v>3.438481655583487</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.09689139268008518</v>
+        <v>0.1831029983534407</v>
       </c>
       <c r="K6">
-        <v>1.137127407897566</v>
+        <v>1.028011148267694</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3128568506250744</v>
+        <v>0.370790213034752</v>
       </c>
       <c r="N6">
-        <v>2.226320257195326</v>
+        <v>3.618273725886809</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.099567599150788</v>
+        <v>0.9795979268280064</v>
       </c>
       <c r="C7">
-        <v>0.1656993805185181</v>
+        <v>0.1343774963281845</v>
       </c>
       <c r="D7">
-        <v>0.01445384290486018</v>
+        <v>0.0310153747947588</v>
       </c>
       <c r="E7">
-        <v>0.0453123841791836</v>
+        <v>0.09348162332666377</v>
       </c>
       <c r="F7">
-        <v>2.150688190479585</v>
+        <v>3.442939871802082</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09859339086386854</v>
+        <v>0.1832507397546053</v>
       </c>
       <c r="K7">
-        <v>1.188997735808584</v>
+        <v>1.039565183862692</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3258085512491462</v>
+        <v>0.3733487036287855</v>
       </c>
       <c r="N7">
-        <v>2.223630861544052</v>
+        <v>3.616341205275361</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.311787464295918</v>
+        <v>1.027592216632485</v>
       </c>
       <c r="C8">
-        <v>0.1997201943627545</v>
+        <v>0.141962519283851</v>
       </c>
       <c r="D8">
-        <v>0.01752306987527419</v>
+        <v>0.03136942572535872</v>
       </c>
       <c r="E8">
-        <v>0.05058283865134072</v>
+        <v>0.09402316149296297</v>
       </c>
       <c r="F8">
-        <v>2.304644915715443</v>
+        <v>3.465623759463284</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1064213951472581</v>
+        <v>0.1840650626497649</v>
       </c>
       <c r="K8">
-        <v>1.421794476339954</v>
+        <v>1.092058152974346</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3840480008078444</v>
+        <v>0.385139687066939</v>
       </c>
       <c r="N8">
-        <v>2.216158964724031</v>
+        <v>3.609518432470026</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.744001198977713</v>
+        <v>1.126750821028764</v>
       </c>
       <c r="C9">
-        <v>0.2690987976740473</v>
+        <v>0.1575819356264105</v>
       </c>
       <c r="D9">
-        <v>0.02362213087186404</v>
+        <v>0.03221394087285034</v>
       </c>
       <c r="E9">
-        <v>0.0615099285918852</v>
+        <v>0.09541725817975433</v>
       </c>
       <c r="F9">
-        <v>2.635827112510583</v>
+        <v>3.520945794967957</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.123092189575388</v>
+        <v>0.1862455951658433</v>
       </c>
       <c r="K9">
-        <v>1.896031766440842</v>
+        <v>1.200434798318099</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5030777246077847</v>
+        <v>0.4100644082094647</v>
       </c>
       <c r="N9">
-        <v>2.219004183503117</v>
+        <v>3.60228062256445</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.074809711298826</v>
+        <v>1.202702450768129</v>
       </c>
       <c r="C10">
-        <v>0.3223235305642049</v>
+        <v>0.1695182526035808</v>
       </c>
       <c r="D10">
-        <v>0.02817214430111648</v>
+        <v>0.03292481664951197</v>
       </c>
       <c r="E10">
-        <v>0.06998653653564801</v>
+        <v>0.09664356862873547</v>
       </c>
       <c r="F10">
-        <v>2.901281743722791</v>
+        <v>3.568226683539621</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1363340973802067</v>
+        <v>0.1882040475268383</v>
       </c>
       <c r="K10">
-        <v>2.259171139551654</v>
+        <v>1.28340624885476</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5944401699269193</v>
+        <v>0.4294811042292395</v>
       </c>
       <c r="N10">
-        <v>2.233553517227861</v>
+        <v>3.600722327107007</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.22904782917368</v>
+        <v>1.23793421016336</v>
       </c>
       <c r="C11">
-        <v>0.3471834304223194</v>
+        <v>0.1750499290531025</v>
       </c>
       <c r="D11">
-        <v>0.03026209435329008</v>
+        <v>0.03326760813297369</v>
       </c>
       <c r="E11">
-        <v>0.07396188241212798</v>
+        <v>0.0972452591954216</v>
       </c>
       <c r="F11">
-        <v>3.027919582451744</v>
+        <v>3.591183626566931</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1426210397056735</v>
+        <v>0.189172556746577</v>
       </c>
       <c r="K11">
-        <v>2.42854379703877</v>
+        <v>1.321886528387523</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6370944072069236</v>
+        <v>0.4385554914805283</v>
       </c>
       <c r="N11">
-        <v>2.243326385097703</v>
+        <v>3.600833217581851</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.288073533839395</v>
+        <v>1.251373807403183</v>
       </c>
       <c r="C12">
-        <v>0.3567050916563232</v>
+        <v>0.1771593605086821</v>
       </c>
       <c r="D12">
-        <v>0.03105686016381526</v>
+        <v>0.03340018388646371</v>
       </c>
       <c r="E12">
-        <v>0.07548640225603265</v>
+        <v>0.09747939734703337</v>
       </c>
       <c r="F12">
-        <v>3.076819389473371</v>
+        <v>3.600085530014979</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1450439507484944</v>
+        <v>0.1895504710763802</v>
       </c>
       <c r="K12">
-        <v>2.493372345274793</v>
+        <v>1.33656428018611</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.6534260539852426</v>
+        <v>0.4420265348665779</v>
       </c>
       <c r="N12">
-        <v>2.24752289299883</v>
+        <v>3.600993353464872</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.275332401044295</v>
+        <v>1.24847498410395</v>
       </c>
       <c r="C13">
-        <v>0.3546493888730424</v>
+        <v>0.1767044015521151</v>
       </c>
       <c r="D13">
-        <v>0.03088553653027759</v>
+        <v>0.03337150858218507</v>
       </c>
       <c r="E13">
-        <v>0.07515718442743591</v>
+        <v>0.09742869191006776</v>
       </c>
       <c r="F13">
-        <v>3.066244229295393</v>
+        <v>3.59815906314185</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1445201833565832</v>
+        <v>0.1894685840394317</v>
       </c>
       <c r="K13">
-        <v>2.47937809947399</v>
+        <v>1.333398440637723</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.6499003829013361</v>
+        <v>0.4412774367781509</v>
       </c>
       <c r="N13">
-        <v>2.246596331464531</v>
+        <v>3.600953606608172</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.233891016372638</v>
+        <v>1.239037926955518</v>
       </c>
       <c r="C14">
-        <v>0.3479645341167554</v>
+        <v>0.1752231781253784</v>
       </c>
       <c r="D14">
-        <v>0.03032741036663111</v>
+        <v>0.03327845987536193</v>
       </c>
       <c r="E14">
-        <v>0.07408690982177291</v>
+        <v>0.09726439587205249</v>
       </c>
       <c r="F14">
-        <v>3.03192305845792</v>
+        <v>3.59191180898992</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1428195021481926</v>
+        <v>0.1892034242903762</v>
       </c>
       <c r="K14">
-        <v>2.433862886958366</v>
+        <v>1.323091947911365</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.6384342901758089</v>
+        <v>0.4388403593288501</v>
       </c>
       <c r="N14">
-        <v>2.243661441251106</v>
+        <v>3.600844022754117</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.208590098608965</v>
+        <v>1.233270236942928</v>
       </c>
       <c r="C15">
-        <v>0.3438843620053262</v>
+        <v>0.174317803185204</v>
       </c>
       <c r="D15">
-        <v>0.02998599213334074</v>
+        <v>0.03322182465624479</v>
       </c>
       <c r="E15">
-        <v>0.07343389110023679</v>
+        <v>0.09716457871037321</v>
       </c>
       <c r="F15">
-        <v>3.011026512287657</v>
+        <v>3.588112361220396</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1417834158778604</v>
+        <v>0.1890424598412892</v>
       </c>
       <c r="K15">
-        <v>2.406076298526955</v>
+        <v>1.316792749018617</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.6314350420191559</v>
+        <v>0.4373521078082234</v>
       </c>
       <c r="N15">
-        <v>2.241929624603515</v>
+        <v>3.600792293197671</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.064811997640504</v>
+        <v>1.200413689924517</v>
       </c>
       <c r="C16">
-        <v>0.3207131246658435</v>
+        <v>0.1691587985933438</v>
       </c>
       <c r="D16">
-        <v>0.02803600377901461</v>
+        <v>0.03290280302495319</v>
       </c>
       <c r="E16">
-        <v>0.0697293043062146</v>
+        <v>0.09660512774504681</v>
       </c>
       <c r="F16">
-        <v>2.893132244308106</v>
+        <v>3.566755568557227</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.135928887034467</v>
+        <v>0.1881423148476102</v>
       </c>
       <c r="K16">
-        <v>2.248193796730021</v>
+        <v>1.280906306296345</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5916764582854697</v>
+        <v>0.4288929359154068</v>
       </c>
       <c r="N16">
-        <v>2.23298181092639</v>
+        <v>3.600731598292796</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.977623762967369</v>
+        <v>1.180431797296251</v>
       </c>
       <c r="C17">
-        <v>0.3066741231513674</v>
+        <v>0.1660200348091223</v>
       </c>
       <c r="D17">
-        <v>0.02684521137298645</v>
+        <v>0.0327120485374266</v>
       </c>
       <c r="E17">
-        <v>0.06748856771714884</v>
+        <v>0.09627314108555041</v>
       </c>
       <c r="F17">
-        <v>2.822381552000962</v>
+        <v>3.55402510454347</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1324076703563577</v>
+        <v>0.1876099815405468</v>
       </c>
       <c r="K17">
-        <v>2.152469326671621</v>
+        <v>1.259079855439296</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5675809123682498</v>
+        <v>0.423765412163533</v>
       </c>
       <c r="N17">
-        <v>2.228329106381835</v>
+        <v>3.600904511160891</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.927823292987114</v>
+        <v>1.169002827821032</v>
       </c>
       <c r="C18">
-        <v>0.2986592614487904</v>
+        <v>0.1642242772678912</v>
       </c>
       <c r="D18">
-        <v>0.02616216361352031</v>
+        <v>0.03260415998094146</v>
       </c>
       <c r="E18">
-        <v>0.06621085364133705</v>
+        <v>0.09608631790544564</v>
       </c>
       <c r="F18">
-        <v>2.782234677107979</v>
+        <v>3.546839211980014</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1304068416658168</v>
+        <v>0.1873111013667312</v>
       </c>
       <c r="K18">
-        <v>2.097798555134659</v>
+        <v>1.246595132885801</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5538232095640367</v>
+        <v>0.4208389384247155</v>
       </c>
       <c r="N18">
-        <v>2.225947115471072</v>
+        <v>3.601081110432887</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.911019168319427</v>
+        <v>1.165144177003441</v>
       </c>
       <c r="C19">
-        <v>0.2959554522410883</v>
+        <v>0.1636179072941388</v>
       </c>
       <c r="D19">
-        <v>0.02593120258022452</v>
+        <v>0.03256794550429021</v>
       </c>
       <c r="E19">
-        <v>0.06578009036670096</v>
+        <v>0.09602377194925182</v>
       </c>
       <c r="F19">
-        <v>2.768732738588966</v>
+        <v>3.544429598773178</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1297334750704522</v>
+        <v>0.1872111600611746</v>
       </c>
       <c r="K19">
-        <v>2.079351921411501</v>
+        <v>1.242379910926076</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5491818656681744</v>
+        <v>0.4198519900443429</v>
       </c>
       <c r="N19">
-        <v>2.225189918040726</v>
+        <v>3.601154145594677</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.986868543005983</v>
+        <v>1.182552269948019</v>
       </c>
       <c r="C20">
-        <v>0.3081622881349517</v>
+        <v>0.1663531699589385</v>
       </c>
       <c r="D20">
-        <v>0.02697177715472776</v>
+        <v>0.03273216561541403</v>
       </c>
       <c r="E20">
-        <v>0.06772593554252992</v>
+        <v>0.09630805461937442</v>
       </c>
       <c r="F20">
-        <v>2.829855781166458</v>
+        <v>3.555366172084732</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1327799460369903</v>
+        <v>0.187665893393536</v>
       </c>
       <c r="K20">
-        <v>2.162618642877845</v>
+        <v>1.261396146965325</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5701352741833929</v>
+        <v>0.424308891919722</v>
       </c>
       <c r="N20">
-        <v>2.228793663217957</v>
+        <v>3.600878118300599</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.24604587798666</v>
+        <v>1.241807155747722</v>
       </c>
       <c r="C21">
-        <v>0.3499249889700025</v>
+        <v>0.1756578496876102</v>
       </c>
       <c r="D21">
-        <v>0.03049125086002391</v>
+        <v>0.03330571559492768</v>
       </c>
       <c r="E21">
-        <v>0.07440073904218281</v>
+        <v>0.09731248296392181</v>
       </c>
       <c r="F21">
-        <v>3.041977534322484</v>
+        <v>3.593741115018133</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1433178517374358</v>
+        <v>0.1892810052124361</v>
       </c>
       <c r="K21">
-        <v>2.447212295965414</v>
+        <v>1.326116332984753</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6417971014497965</v>
+        <v>0.4395552442122366</v>
       </c>
       <c r="N21">
-        <v>2.244509676788454</v>
+        <v>3.600873001674017</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.419084888494353</v>
+        <v>1.281105503327353</v>
       </c>
       <c r="C22">
-        <v>0.3778554073203964</v>
+        <v>0.1818247445084467</v>
       </c>
       <c r="D22">
-        <v>0.03281118589426768</v>
+        <v>0.03369668745625631</v>
       </c>
       <c r="E22">
-        <v>0.07887575971322747</v>
+        <v>0.09800559804657993</v>
       </c>
       <c r="F22">
-        <v>3.186172258537738</v>
+        <v>3.620037426138339</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1504532089727562</v>
+        <v>0.1904016298295375</v>
       </c>
       <c r="K22">
-        <v>2.637286063018792</v>
+        <v>1.36903329808689</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.689690067754583</v>
+        <v>0.4497222945052712</v>
       </c>
       <c r="N22">
-        <v>2.257693506423891</v>
+        <v>3.601558417073221</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.326368043846287</v>
+        <v>1.260078852868105</v>
       </c>
       <c r="C23">
-        <v>0.3628849529063416</v>
+        <v>0.1785254875142357</v>
       </c>
       <c r="D23">
-        <v>0.03157102267834944</v>
+        <v>0.03348655067276951</v>
       </c>
       <c r="E23">
-        <v>0.07647633852743851</v>
+        <v>0.09763231887786716</v>
       </c>
       <c r="F23">
-        <v>3.10866843381325</v>
+        <v>3.605891219436586</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1466206645293511</v>
+        <v>0.1897975779276706</v>
       </c>
       <c r="K23">
-        <v>2.53543495204309</v>
+        <v>1.346071021915321</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6640239251225495</v>
+        <v>0.4442773952003805</v>
       </c>
       <c r="N23">
-        <v>2.250375397941525</v>
+        <v>3.601129488439227</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.982687970913275</v>
+        <v>1.181593420852039</v>
       </c>
       <c r="C24">
-        <v>0.307489314321316</v>
+        <v>0.1662025322797263</v>
       </c>
       <c r="D24">
-        <v>0.02691455195606807</v>
+        <v>0.03272306514195122</v>
       </c>
       <c r="E24">
-        <v>0.0676185889438301</v>
+        <v>0.09629225762489568</v>
       </c>
       <c r="F24">
-        <v>2.826475042923889</v>
+        <v>3.554759461120042</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.132611567122666</v>
+        <v>0.187640593326357</v>
       </c>
       <c r="K24">
-        <v>2.158029014586077</v>
+        <v>1.260348753498477</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5689801524954632</v>
+        <v>0.4240631180417154</v>
       </c>
       <c r="N24">
-        <v>2.228582727850608</v>
+        <v>3.600889810081881</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.625017894742967</v>
+        <v>1.099383343701561</v>
       </c>
       <c r="C25">
-        <v>0.2499836425149624</v>
+        <v>0.153276030053803</v>
       </c>
       <c r="D25">
-        <v>0.02196161995556167</v>
+        <v>0.03196951659367997</v>
       </c>
       <c r="E25">
-        <v>0.0584819219635655</v>
+        <v>0.09500460391917187</v>
       </c>
       <c r="F25">
-        <v>2.542680823807032</v>
+        <v>3.504816464229151</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1184224914991958</v>
+        <v>0.1855931587324875</v>
       </c>
       <c r="K25">
-        <v>1.765458510306956</v>
+        <v>1.170530588199938</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4702658312069516</v>
+        <v>0.4031280583613253</v>
       </c>
       <c r="N25">
-        <v>2.216186645003432</v>
+        <v>3.603579582798488</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_62/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_62/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.040936523214157</v>
+        <v>1.370256532119669</v>
       </c>
       <c r="C2">
-        <v>0.1440678763281937</v>
+        <v>0.2090971500085033</v>
       </c>
       <c r="D2">
-        <v>0.03147556612577418</v>
+        <v>0.01835943391791162</v>
       </c>
       <c r="E2">
-        <v>0.09419238487479475</v>
+        <v>0.05204792301396921</v>
       </c>
       <c r="F2">
-        <v>3.472502459719323</v>
+        <v>2.348194929041384</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1843251799547474</v>
+        <v>0.1086253004579092</v>
       </c>
       <c r="K2">
-        <v>1.106647970836462</v>
+        <v>1.485937312532883</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3884562439538328</v>
+        <v>0.4001213000551758</v>
       </c>
       <c r="N2">
-        <v>3.608084878746723</v>
+        <v>2.215257964055809</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.002616785891206</v>
+        <v>1.201811652937607</v>
       </c>
       <c r="C3">
-        <v>0.1380182215032733</v>
+        <v>0.1820878998636459</v>
       </c>
       <c r="D3">
-        <v>0.03117916304550405</v>
+        <v>0.01593936749033276</v>
       </c>
       <c r="E3">
-        <v>0.09372680780215248</v>
+        <v>0.04784148713327951</v>
       </c>
       <c r="F3">
-        <v>3.45337420963719</v>
+        <v>2.224001126244332</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1836150428678209</v>
+        <v>0.102328782306742</v>
       </c>
       <c r="K3">
-        <v>1.064745862659947</v>
+        <v>1.301152970872579</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3789740781784801</v>
+        <v>0.3538460444806972</v>
       </c>
       <c r="N3">
-        <v>3.612708044780433</v>
+        <v>2.219152828798755</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9797222471347311</v>
+        <v>1.100122715241355</v>
       </c>
       <c r="C4">
-        <v>0.134397175520732</v>
+        <v>0.165788352505885</v>
       </c>
       <c r="D4">
-        <v>0.03101622485735689</v>
+        <v>0.0144619444002636</v>
       </c>
       <c r="E4">
-        <v>0.09348286438032893</v>
+        <v>0.04532605819614055</v>
       </c>
       <c r="F4">
-        <v>3.44299368482848</v>
+        <v>2.151081491561044</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1832525573497392</v>
+        <v>0.09861347220272876</v>
       </c>
       <c r="K4">
-        <v>1.039701203945185</v>
+        <v>1.189606657086927</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3733789150369162</v>
+        <v>0.325960656300353</v>
       </c>
       <c r="N4">
-        <v>3.61631952472267</v>
+        <v>2.223601724025528</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9705518261576458</v>
+        <v>1.059074334784924</v>
       </c>
       <c r="C5">
-        <v>0.1329450154809848</v>
+        <v>0.159209362752506</v>
       </c>
       <c r="D5">
-        <v>0.03095464164427497</v>
+        <v>0.01386176888774671</v>
       </c>
       <c r="E5">
-        <v>0.09339401245362744</v>
+        <v>0.04431676575991261</v>
       </c>
       <c r="F5">
-        <v>3.439106426931801</v>
+        <v>2.12214791898694</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1831233378920061</v>
+        <v>0.09713484940380113</v>
       </c>
       <c r="K5">
-        <v>1.029666963550596</v>
+        <v>1.144579643714934</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3711558974215379</v>
+        <v>0.3147169766998203</v>
       </c>
       <c r="N5">
-        <v>3.617985388974688</v>
+        <v>2.225908141604975</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9690387021591391</v>
+        <v>1.052280591847563</v>
       </c>
       <c r="C6">
-        <v>0.1327052998250053</v>
+        <v>0.1581205136456703</v>
       </c>
       <c r="D6">
-        <v>0.03094470734930255</v>
+        <v>0.01376221713257664</v>
       </c>
       <c r="E6">
-        <v>0.09337989672776992</v>
+        <v>0.04415009303550832</v>
       </c>
       <c r="F6">
-        <v>3.438481655583487</v>
+        <v>2.117389144325955</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1831029983534407</v>
+        <v>0.09689139268002123</v>
       </c>
       <c r="K6">
-        <v>1.028011148267694</v>
+        <v>1.137127407897736</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.370790213034752</v>
+        <v>0.3128568506250744</v>
       </c>
       <c r="N6">
-        <v>3.618273725886809</v>
+        <v>2.226320257195411</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9795979268280064</v>
+        <v>1.099567599150731</v>
       </c>
       <c r="C7">
-        <v>0.1343774963281845</v>
+        <v>0.1656993805185039</v>
       </c>
       <c r="D7">
-        <v>0.0310153747947588</v>
+        <v>0.01445384290453688</v>
       </c>
       <c r="E7">
-        <v>0.09348162332666377</v>
+        <v>0.04531238417920136</v>
       </c>
       <c r="F7">
-        <v>3.442939871802082</v>
+        <v>2.15068819047957</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1832507397546053</v>
+        <v>0.09859339086394669</v>
       </c>
       <c r="K7">
-        <v>1.039565183862692</v>
+        <v>1.188997735808641</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3733487036287855</v>
+        <v>0.3258085512491533</v>
       </c>
       <c r="N7">
-        <v>3.616341205275361</v>
+        <v>2.223630861544052</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.027592216632485</v>
+        <v>1.31178746429589</v>
       </c>
       <c r="C8">
-        <v>0.141962519283851</v>
+        <v>0.1997201943627545</v>
       </c>
       <c r="D8">
-        <v>0.03136942572535872</v>
+        <v>0.01752306987537722</v>
       </c>
       <c r="E8">
-        <v>0.09402316149296297</v>
+        <v>0.05058283865136914</v>
       </c>
       <c r="F8">
-        <v>3.465623759463284</v>
+        <v>2.304644915715471</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1840650626497649</v>
+        <v>0.1064213951472865</v>
       </c>
       <c r="K8">
-        <v>1.092058152974346</v>
+        <v>1.421794476340096</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.385139687066939</v>
+        <v>0.3840480008078515</v>
       </c>
       <c r="N8">
-        <v>3.609518432470026</v>
+        <v>2.216158964724059</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.126750821028764</v>
+        <v>1.744001198977401</v>
       </c>
       <c r="C9">
-        <v>0.1575819356264105</v>
+        <v>0.2690987976740473</v>
       </c>
       <c r="D9">
-        <v>0.03221394087285034</v>
+        <v>0.02362213087162957</v>
       </c>
       <c r="E9">
-        <v>0.09541725817975433</v>
+        <v>0.0615099285918852</v>
       </c>
       <c r="F9">
-        <v>3.520945794967957</v>
+        <v>2.635827112510611</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1862455951658433</v>
+        <v>0.1230921895754591</v>
       </c>
       <c r="K9">
-        <v>1.200434798318099</v>
+        <v>1.896031766440785</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4100644082094647</v>
+        <v>0.5030777246077776</v>
       </c>
       <c r="N9">
-        <v>3.60228062256445</v>
+        <v>2.219004183503117</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.202702450768129</v>
+        <v>2.074809711298826</v>
       </c>
       <c r="C10">
-        <v>0.1695182526035808</v>
+        <v>0.3223235305644323</v>
       </c>
       <c r="D10">
-        <v>0.03292481664951197</v>
+        <v>0.02817214430113779</v>
       </c>
       <c r="E10">
-        <v>0.09664356862873547</v>
+        <v>0.06998653653568709</v>
       </c>
       <c r="F10">
-        <v>3.568226683539621</v>
+        <v>2.901281743722819</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1882040475268383</v>
+        <v>0.1363340973803489</v>
       </c>
       <c r="K10">
-        <v>1.28340624885476</v>
+        <v>2.259171139551626</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4294811042292395</v>
+        <v>0.5944401699269193</v>
       </c>
       <c r="N10">
-        <v>3.600722327107007</v>
+        <v>2.233553517227861</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.23793421016336</v>
+        <v>2.229047829173965</v>
       </c>
       <c r="C11">
-        <v>0.1750499290531025</v>
+        <v>0.3471834304225183</v>
       </c>
       <c r="D11">
-        <v>0.03326760813297369</v>
+        <v>0.0302620943531835</v>
       </c>
       <c r="E11">
-        <v>0.0972452591954216</v>
+        <v>0.0739618824121635</v>
       </c>
       <c r="F11">
-        <v>3.591183626566931</v>
+        <v>3.027919582451773</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.189172556746577</v>
+        <v>0.1426210397057091</v>
       </c>
       <c r="K11">
-        <v>1.321886528387523</v>
+        <v>2.428543797038657</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4385554914805283</v>
+        <v>0.6370944072069165</v>
       </c>
       <c r="N11">
-        <v>3.600833217581851</v>
+        <v>2.243326385097674</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.251373807403183</v>
+        <v>2.288073533839508</v>
       </c>
       <c r="C12">
-        <v>0.1771593605086821</v>
+        <v>0.3567050916563517</v>
       </c>
       <c r="D12">
-        <v>0.03340018388646371</v>
+        <v>0.03105686016405684</v>
       </c>
       <c r="E12">
-        <v>0.09747939734703337</v>
+        <v>0.0754864022560362</v>
       </c>
       <c r="F12">
-        <v>3.600085530014979</v>
+        <v>3.076819389473371</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1895504710763802</v>
+        <v>0.1450439507486294</v>
       </c>
       <c r="K12">
-        <v>1.33656428018611</v>
+        <v>2.493372345274793</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4420265348665779</v>
+        <v>0.6534260539852426</v>
       </c>
       <c r="N12">
-        <v>3.600993353464872</v>
+        <v>2.24752289299883</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.24847498410395</v>
+        <v>2.275332401044352</v>
       </c>
       <c r="C13">
-        <v>0.1767044015521151</v>
+        <v>0.3546493888728435</v>
       </c>
       <c r="D13">
-        <v>0.03337150858218507</v>
+        <v>0.0308855365302847</v>
       </c>
       <c r="E13">
-        <v>0.09742869191006776</v>
+        <v>0.07515718442744301</v>
       </c>
       <c r="F13">
-        <v>3.59815906314185</v>
+        <v>3.066244229295393</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1894685840394317</v>
+        <v>0.1445201833567822</v>
       </c>
       <c r="K13">
-        <v>1.333398440637723</v>
+        <v>2.479378099473962</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4412774367781509</v>
+        <v>0.6499003829013716</v>
       </c>
       <c r="N13">
-        <v>3.600953606608172</v>
+        <v>2.246596331464559</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.239037926955518</v>
+        <v>2.233891016372695</v>
       </c>
       <c r="C14">
-        <v>0.1752231781253784</v>
+        <v>0.3479645341167839</v>
       </c>
       <c r="D14">
-        <v>0.03327845987536193</v>
+        <v>0.03032741036675901</v>
       </c>
       <c r="E14">
-        <v>0.09726439587205249</v>
+        <v>0.0740869098217587</v>
       </c>
       <c r="F14">
-        <v>3.59191180898992</v>
+        <v>3.031923058457835</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1892034242903762</v>
+        <v>0.1428195021480363</v>
       </c>
       <c r="K14">
-        <v>1.323091947911365</v>
+        <v>2.433862886958337</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.4388403593288501</v>
+        <v>0.6384342901758089</v>
       </c>
       <c r="N14">
-        <v>3.600844022754117</v>
+        <v>2.243661441251092</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.233270236942928</v>
+        <v>2.208590098608909</v>
       </c>
       <c r="C15">
-        <v>0.174317803185204</v>
+        <v>0.3438843620053262</v>
       </c>
       <c r="D15">
-        <v>0.03322182465624479</v>
+        <v>0.02998599213333364</v>
       </c>
       <c r="E15">
-        <v>0.09716457871037321</v>
+        <v>0.07343389110017284</v>
       </c>
       <c r="F15">
-        <v>3.588112361220396</v>
+        <v>3.011026512287657</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1890424598412892</v>
+        <v>0.1417834158778959</v>
       </c>
       <c r="K15">
-        <v>1.316792749018617</v>
+        <v>2.406076298527012</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.4373521078082234</v>
+        <v>0.6314350420191559</v>
       </c>
       <c r="N15">
-        <v>3.600792293197671</v>
+        <v>2.241929624603529</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.200413689924517</v>
+        <v>2.064811997640334</v>
       </c>
       <c r="C16">
-        <v>0.1691587985933438</v>
+        <v>0.3207131246655877</v>
       </c>
       <c r="D16">
-        <v>0.03290280302495319</v>
+        <v>0.02803600377875171</v>
       </c>
       <c r="E16">
-        <v>0.09660512774504681</v>
+        <v>0.06972930430623236</v>
       </c>
       <c r="F16">
-        <v>3.566755568557227</v>
+        <v>2.893132244308077</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1881423148476102</v>
+        <v>0.1359288870345949</v>
       </c>
       <c r="K16">
-        <v>1.280906306296345</v>
+        <v>2.248193796729907</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4288929359154068</v>
+        <v>0.5916764582854697</v>
       </c>
       <c r="N16">
-        <v>3.600731598292796</v>
+        <v>2.23298181092629</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.180431797296251</v>
+        <v>1.977623762967028</v>
       </c>
       <c r="C17">
-        <v>0.1660200348091223</v>
+        <v>0.3066741231509695</v>
       </c>
       <c r="D17">
-        <v>0.0327120485374266</v>
+        <v>0.0268452113727875</v>
       </c>
       <c r="E17">
-        <v>0.09627314108555041</v>
+        <v>0.06748856771721279</v>
       </c>
       <c r="F17">
-        <v>3.55402510454347</v>
+        <v>2.822381552000991</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1876099815405468</v>
+        <v>0.1324076703564572</v>
       </c>
       <c r="K17">
-        <v>1.259079855439296</v>
+        <v>2.152469326671508</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.423765412163533</v>
+        <v>0.567580912368264</v>
       </c>
       <c r="N17">
-        <v>3.600904511160891</v>
+        <v>2.22832910638185</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.169002827821032</v>
+        <v>1.927823292987142</v>
       </c>
       <c r="C18">
-        <v>0.1642242772678912</v>
+        <v>0.2986592614490178</v>
       </c>
       <c r="D18">
-        <v>0.03260415998094146</v>
+        <v>0.02616216361376189</v>
       </c>
       <c r="E18">
-        <v>0.09608631790544564</v>
+        <v>0.06621085364132639</v>
       </c>
       <c r="F18">
-        <v>3.546839211980014</v>
+        <v>2.782234677107937</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1873111013667312</v>
+        <v>0.1304068416658879</v>
       </c>
       <c r="K18">
-        <v>1.246595132885801</v>
+        <v>2.097798555134631</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4208389384247155</v>
+        <v>0.5538232095640296</v>
       </c>
       <c r="N18">
-        <v>3.601081110432887</v>
+        <v>2.225947115471001</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.165144177003441</v>
+        <v>1.911019168319541</v>
       </c>
       <c r="C19">
-        <v>0.1636179072941388</v>
+        <v>0.2959554522408894</v>
       </c>
       <c r="D19">
-        <v>0.03256794550429021</v>
+        <v>0.02593120258022452</v>
       </c>
       <c r="E19">
-        <v>0.09602377194925182</v>
+        <v>0.06578009036669741</v>
       </c>
       <c r="F19">
-        <v>3.544429598773178</v>
+        <v>2.76873273858898</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1872111600611746</v>
+        <v>0.1297334750703811</v>
       </c>
       <c r="K19">
-        <v>1.242379910926076</v>
+        <v>2.079351921411558</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4198519900443429</v>
+        <v>0.5491818656681815</v>
       </c>
       <c r="N19">
-        <v>3.601154145594677</v>
+        <v>2.225189918040726</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.182552269948019</v>
+        <v>1.986868543005869</v>
       </c>
       <c r="C20">
-        <v>0.1663531699589385</v>
+        <v>0.3081622881351507</v>
       </c>
       <c r="D20">
-        <v>0.03273216561541403</v>
+        <v>0.02697177715472066</v>
       </c>
       <c r="E20">
-        <v>0.09630805461937442</v>
+        <v>0.06772593554252637</v>
       </c>
       <c r="F20">
-        <v>3.555366172084732</v>
+        <v>2.829855781166458</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.187665893393536</v>
+        <v>0.1327799460369334</v>
       </c>
       <c r="K20">
-        <v>1.261396146965325</v>
+        <v>2.162618642877845</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.424308891919722</v>
+        <v>0.5701352741834</v>
       </c>
       <c r="N20">
-        <v>3.600878118300599</v>
+        <v>2.228793663217971</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.241807155747722</v>
+        <v>2.246045877986717</v>
       </c>
       <c r="C21">
-        <v>0.1756578496876102</v>
+        <v>0.3499249889700593</v>
       </c>
       <c r="D21">
-        <v>0.03330571559492768</v>
+        <v>0.0304912508601447</v>
       </c>
       <c r="E21">
-        <v>0.09731248296392181</v>
+        <v>0.07440073904218636</v>
       </c>
       <c r="F21">
-        <v>3.593741115018133</v>
+        <v>3.041977534322484</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1892810052124361</v>
+        <v>0.1433178517374216</v>
       </c>
       <c r="K21">
-        <v>1.326116332984753</v>
+        <v>2.447212295965386</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4395552442122366</v>
+        <v>0.6417971014498107</v>
       </c>
       <c r="N21">
-        <v>3.600873001674017</v>
+        <v>2.244509676788496</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.281105503327353</v>
+        <v>2.419084888494353</v>
       </c>
       <c r="C22">
-        <v>0.1818247445084467</v>
+        <v>0.3778554073206521</v>
       </c>
       <c r="D22">
-        <v>0.03369668745625631</v>
+        <v>0.03281118589379162</v>
       </c>
       <c r="E22">
-        <v>0.09800559804657993</v>
+        <v>0.07887575971322747</v>
       </c>
       <c r="F22">
-        <v>3.620037426138339</v>
+        <v>3.186172258537709</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1904016298295375</v>
+        <v>0.1504532089727633</v>
       </c>
       <c r="K22">
-        <v>1.36903329808689</v>
+        <v>2.637286063018877</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.4497222945052712</v>
+        <v>0.6896900677545759</v>
       </c>
       <c r="N22">
-        <v>3.601558417073221</v>
+        <v>2.257693506423863</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.260078852868105</v>
+        <v>2.326368043846514</v>
       </c>
       <c r="C23">
-        <v>0.1785254875142357</v>
+        <v>0.3628849529063416</v>
       </c>
       <c r="D23">
-        <v>0.03348655067276951</v>
+        <v>0.03157102267834233</v>
       </c>
       <c r="E23">
-        <v>0.09763231887786716</v>
+        <v>0.07647633852743851</v>
       </c>
       <c r="F23">
-        <v>3.605891219436586</v>
+        <v>3.10866843381325</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1897975779276706</v>
+        <v>0.1466206645293298</v>
       </c>
       <c r="K23">
-        <v>1.346071021915321</v>
+        <v>2.535434952043033</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.4442773952003805</v>
+        <v>0.6640239251225495</v>
       </c>
       <c r="N23">
-        <v>3.601129488439227</v>
+        <v>2.250375397941525</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.181593420852039</v>
+        <v>1.982687970913503</v>
       </c>
       <c r="C24">
-        <v>0.1662025322797263</v>
+        <v>0.307489314321316</v>
       </c>
       <c r="D24">
-        <v>0.03272306514195122</v>
+        <v>0.02691455195608228</v>
       </c>
       <c r="E24">
-        <v>0.09629225762489568</v>
+        <v>0.06761858894389405</v>
       </c>
       <c r="F24">
-        <v>3.554759461120042</v>
+        <v>2.826475042923903</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.187640593326357</v>
+        <v>0.1326115671226447</v>
       </c>
       <c r="K24">
-        <v>1.260348753498477</v>
+        <v>2.158029014585935</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4240631180417154</v>
+        <v>0.5689801524954561</v>
       </c>
       <c r="N24">
-        <v>3.600889810081881</v>
+        <v>2.228582727850579</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.099383343701561</v>
+        <v>1.625017894742996</v>
       </c>
       <c r="C25">
-        <v>0.153276030053803</v>
+        <v>0.2499836425149624</v>
       </c>
       <c r="D25">
-        <v>0.03196951659367997</v>
+        <v>0.02196161995578905</v>
       </c>
       <c r="E25">
-        <v>0.09500460391917187</v>
+        <v>0.05848192196359037</v>
       </c>
       <c r="F25">
-        <v>3.504816464229151</v>
+        <v>2.542680823807032</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1855931587324875</v>
+        <v>0.1184224914993095</v>
       </c>
       <c r="K25">
-        <v>1.170530588199938</v>
+        <v>1.765458510306985</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4031280583613253</v>
+        <v>0.4702658312069588</v>
       </c>
       <c r="N25">
-        <v>3.603579582798488</v>
+        <v>2.216186645003376</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_62/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_62/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.370256532119669</v>
+        <v>2.632484409972676</v>
       </c>
       <c r="C2">
-        <v>0.2090971500085033</v>
+        <v>0.6141382834949241</v>
       </c>
       <c r="D2">
-        <v>0.01835943391791162</v>
+        <v>0.06336503191798215</v>
       </c>
       <c r="E2">
-        <v>0.05204792301396921</v>
+        <v>0.06448293646744263</v>
       </c>
       <c r="F2">
-        <v>2.348194929041384</v>
+        <v>0.4948220363463776</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.001484720017704499</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0009705785897966557</v>
       </c>
       <c r="J2">
-        <v>0.1086253004579092</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="K2">
-        <v>1.485937312532883</v>
+        <v>0.3005108014680893</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4001213000551758</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>2.215257964055809</v>
+        <v>0.1753455562028918</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.4408275013775196</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.447415806103834</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.201811652937607</v>
+        <v>2.294220610329717</v>
       </c>
       <c r="C3">
-        <v>0.1820878998636459</v>
+        <v>0.5542852738255419</v>
       </c>
       <c r="D3">
-        <v>0.01593936749033276</v>
+        <v>0.05713371565010306</v>
       </c>
       <c r="E3">
-        <v>0.04784148713327951</v>
+        <v>0.06278058226022298</v>
       </c>
       <c r="F3">
-        <v>2.224001126244332</v>
+        <v>0.4660447049935428</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
+        <v>0.002633785944181122</v>
+      </c>
+      <c r="I3">
+        <v>0.001754925103576888</v>
+      </c>
+      <c r="J3">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0.102328782306742</v>
-      </c>
       <c r="K3">
-        <v>1.301152970872579</v>
+        <v>0.3071136621697867</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3538460444806972</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>2.219152828798755</v>
+        <v>0.1574266548414229</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.3845479470238686</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.397011671941826</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.100122715241355</v>
+        <v>2.086173772220093</v>
       </c>
       <c r="C4">
-        <v>0.165788352505885</v>
+        <v>0.5177043221844997</v>
       </c>
       <c r="D4">
-        <v>0.0144619444002636</v>
+        <v>0.05331650930106946</v>
       </c>
       <c r="E4">
-        <v>0.04532605819614055</v>
+        <v>0.06171085442941338</v>
       </c>
       <c r="F4">
-        <v>2.151081491561044</v>
+        <v>0.4489487395714349</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
+        <v>0.003533412972618111</v>
+      </c>
+      <c r="I4">
+        <v>0.002472002623088887</v>
+      </c>
+      <c r="J4">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0.09861347220272876</v>
-      </c>
       <c r="K4">
-        <v>1.189606657086927</v>
+        <v>0.3115197062098929</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.325960656300353</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>2.223601724025528</v>
+        <v>0.146444576483951</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.3499724855471911</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1.367826330685219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.059074334784924</v>
+        <v>2.001246220374753</v>
       </c>
       <c r="C5">
-        <v>0.159209362752506</v>
+        <v>0.5035801590132962</v>
       </c>
       <c r="D5">
-        <v>0.01386176888774671</v>
+        <v>0.0518321757474709</v>
       </c>
       <c r="E5">
-        <v>0.04431676575991261</v>
+        <v>0.06125618447509185</v>
       </c>
       <c r="F5">
-        <v>2.12214791898694</v>
+        <v>0.441529846908395</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
+        <v>0.003948775190295462</v>
+      </c>
+      <c r="I5">
+        <v>0.002894447213571016</v>
+      </c>
+      <c r="J5">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0.09713484940380113</v>
-      </c>
       <c r="K5">
-        <v>1.144579643714934</v>
+        <v>0.3130048603298903</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3147169766998203</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>2.225908141604975</v>
+        <v>0.1420255316354897</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.3359109760747145</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1.354421080629464</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.052280591847563</v>
+        <v>1.987080286330297</v>
       </c>
       <c r="C6">
-        <v>0.1581205136456703</v>
+        <v>0.5021530149125226</v>
       </c>
       <c r="D6">
-        <v>0.01376221713257664</v>
+        <v>0.05167101446743061</v>
       </c>
       <c r="E6">
-        <v>0.04415009303550832</v>
+        <v>0.06116555885139663</v>
       </c>
       <c r="F6">
-        <v>2.117389144325955</v>
+        <v>0.4395873085075905</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
+        <v>0.004023294736070437</v>
+      </c>
+      <c r="I6">
+        <v>0.003065605928558313</v>
+      </c>
+      <c r="J6">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0.09689139268002123</v>
-      </c>
       <c r="K6">
-        <v>1.137127407897736</v>
+        <v>0.3127740757480097</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3128568506250744</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>2.226320257195411</v>
+        <v>0.1413564666890323</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.3336191732138829</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1.349859582403212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.099567599150731</v>
+        <v>2.084870280013035</v>
       </c>
       <c r="C7">
-        <v>0.1656993805185039</v>
+        <v>0.5200245083048856</v>
       </c>
       <c r="D7">
-        <v>0.01445384290453688</v>
+        <v>0.05353013482649516</v>
       </c>
       <c r="E7">
-        <v>0.04531238417920136</v>
+        <v>0.06166532160115712</v>
       </c>
       <c r="F7">
-        <v>2.15068819047957</v>
+        <v>0.4468851434676253</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
+        <v>0.003545804745632763</v>
+      </c>
+      <c r="I7">
+        <v>0.002728073953451648</v>
+      </c>
+      <c r="J7">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0.09859339086394669</v>
-      </c>
       <c r="K7">
-        <v>1.188997735808641</v>
+        <v>0.3102246853195503</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3258085512491533</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>2.223630861544052</v>
+        <v>0.1465619849961968</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.3499019951521234</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1.361199594148843</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.31178746429589</v>
+        <v>2.515699441809659</v>
       </c>
       <c r="C8">
-        <v>0.1997201943627545</v>
+        <v>0.5968284924722411</v>
       </c>
       <c r="D8">
-        <v>0.01752306987537722</v>
+        <v>0.06152793142305768</v>
       </c>
       <c r="E8">
-        <v>0.05058283865136914</v>
+        <v>0.06385224865709471</v>
       </c>
       <c r="F8">
-        <v>2.304644915715471</v>
+        <v>0.4821793038425923</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
+        <v>0.001845385627024076</v>
+      </c>
+      <c r="I8">
+        <v>0.001488726999617995</v>
+      </c>
+      <c r="J8">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0.1064213951472865</v>
-      </c>
       <c r="K8">
-        <v>1.421794476340096</v>
+        <v>0.3009917524647712</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3840480008078515</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>2.216158964724059</v>
+        <v>0.169399683306068</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.4215824554783225</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.42115111314456</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.744001198977401</v>
+        <v>3.358667489443633</v>
       </c>
       <c r="C9">
-        <v>0.2690987976740473</v>
+        <v>0.7445203806428253</v>
       </c>
       <c r="D9">
-        <v>0.02362213087162957</v>
+        <v>0.0768798259872554</v>
       </c>
       <c r="E9">
-        <v>0.0615099285918852</v>
+        <v>0.06803145642235564</v>
       </c>
       <c r="F9">
-        <v>2.635827112510611</v>
+        <v>0.5598595169010352</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
+        <v>0.0001544121566294798</v>
+      </c>
+      <c r="I9">
+        <v>0.0006895287860784194</v>
+      </c>
+      <c r="J9">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0.1230921895754591</v>
-      </c>
       <c r="K9">
-        <v>1.896031766440785</v>
+        <v>0.288150539482654</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5030777246077776</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>2.219004183503117</v>
+        <v>0.2140939192068245</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.5619031470199403</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.565335125198231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.074809711298826</v>
+        <v>3.982977628683102</v>
       </c>
       <c r="C10">
-        <v>0.3223235305644323</v>
+        <v>0.8653124733210973</v>
       </c>
       <c r="D10">
-        <v>0.02817214430113779</v>
+        <v>0.0895965199263955</v>
       </c>
       <c r="E10">
-        <v>0.06998653653568709</v>
+        <v>0.07102654139311149</v>
       </c>
       <c r="F10">
-        <v>2.901281743722819</v>
+        <v>0.6100149036350118</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
+        <v>0.0002456669562787006</v>
+      </c>
+      <c r="I10">
+        <v>0.001627231857080247</v>
+      </c>
+      <c r="J10">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0.1363340973803489</v>
-      </c>
       <c r="K10">
-        <v>2.259171139551626</v>
+        <v>0.2744312469078807</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5944401699269193</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>2.233553517227861</v>
+        <v>0.2356620833157308</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.6579960848869604</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.64791660720212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.229047829173965</v>
+        <v>4.315620885257431</v>
       </c>
       <c r="C11">
-        <v>0.3471834304225183</v>
+        <v>1.013937208183307</v>
       </c>
       <c r="D11">
-        <v>0.0302620943531835</v>
+        <v>0.1072830813225991</v>
       </c>
       <c r="E11">
-        <v>0.0739618824121635</v>
+        <v>0.07967382460315697</v>
       </c>
       <c r="F11">
-        <v>3.027919582451773</v>
+        <v>0.5495694416018253</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
+        <v>0.01881994337801629</v>
+      </c>
+      <c r="I11">
+        <v>0.002577003180069148</v>
+      </c>
+      <c r="J11">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0.1426210397057091</v>
-      </c>
       <c r="K11">
-        <v>2.428543797038657</v>
+        <v>0.2224522403149258</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6370944072069165</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>2.243326385097674</v>
+        <v>0.1568896768229777</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.6393883404953868</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.418750383199068</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.288073533839508</v>
+        <v>4.466909121445042</v>
       </c>
       <c r="C12">
-        <v>0.3567050916563517</v>
+        <v>1.117301038087618</v>
       </c>
       <c r="D12">
-        <v>0.03105686016405684</v>
+        <v>0.1201904693639335</v>
       </c>
       <c r="E12">
-        <v>0.0754864022560362</v>
+        <v>0.09591169254292176</v>
       </c>
       <c r="F12">
-        <v>3.076819389473371</v>
+        <v>0.4928901766786211</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
+        <v>0.05746705503517546</v>
+      </c>
+      <c r="I12">
+        <v>0.002706197791013665</v>
+      </c>
+      <c r="J12">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0.1450439507486294</v>
-      </c>
       <c r="K12">
-        <v>2.493372345274793</v>
+        <v>0.1891413822620649</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.6534260539852426</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>2.24752289299883</v>
+        <v>0.1016840783602078</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.603400992569199</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1.22878503477628</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.275332401044352</v>
+        <v>4.485569996077061</v>
       </c>
       <c r="C13">
-        <v>0.3546493888728435</v>
+        <v>1.194640041210192</v>
       </c>
       <c r="D13">
-        <v>0.0308855365302847</v>
+        <v>0.1303918885002275</v>
       </c>
       <c r="E13">
-        <v>0.07515718442744301</v>
+        <v>0.1184804535612898</v>
       </c>
       <c r="F13">
-        <v>3.066244229295393</v>
+        <v>0.432570205785602</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
+        <v>0.1131585501013177</v>
+      </c>
+      <c r="I13">
+        <v>0.00250783127178611</v>
+      </c>
+      <c r="J13">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0.1445201833567822</v>
-      </c>
       <c r="K13">
-        <v>2.479378099473962</v>
+        <v>0.1658914863962835</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.6499003829013716</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>2.246596331464559</v>
+        <v>0.06179247813051703</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.5524201927694818</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1.047220358818635</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.233891016372695</v>
+        <v>4.438380797960008</v>
       </c>
       <c r="C14">
-        <v>0.3479645341167839</v>
+        <v>1.238244724024412</v>
       </c>
       <c r="D14">
-        <v>0.03032741036675901</v>
+        <v>0.1364426993374366</v>
       </c>
       <c r="E14">
-        <v>0.0740869098217587</v>
+        <v>0.13819355090396</v>
       </c>
       <c r="F14">
-        <v>3.031923058457835</v>
+        <v>0.3888227358366407</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
+        <v>0.1624620577456284</v>
+      </c>
+      <c r="I14">
+        <v>0.002315369831651815</v>
+      </c>
+      <c r="J14">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0.1428195021480363</v>
-      </c>
       <c r="K14">
-        <v>2.433862886958337</v>
+        <v>0.1547489916279146</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.6384342901758089</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>2.243661441251092</v>
+        <v>0.04314292235761208</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.5103799706195957</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.9248817969764218</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.208590098608909</v>
+        <v>4.398124147229908</v>
       </c>
       <c r="C15">
-        <v>0.3438843620053262</v>
+        <v>1.243473714788479</v>
       </c>
       <c r="D15">
-        <v>0.02998599213333364</v>
+        <v>0.1373049463050222</v>
       </c>
       <c r="E15">
-        <v>0.07343389110017284</v>
+        <v>0.143112272805876</v>
       </c>
       <c r="F15">
-        <v>3.011026512287657</v>
+        <v>0.3766116008439511</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
+        <v>0.1749546269866045</v>
+      </c>
+      <c r="I15">
+        <v>0.00231593473891234</v>
+      </c>
+      <c r="J15">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0.1417834158778959</v>
-      </c>
       <c r="K15">
-        <v>2.406076298527012</v>
+        <v>0.1532387618361968</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.6314350420191559</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>2.241929624603529</v>
+        <v>0.03980902387549889</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.4970595702730378</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.8938526956813035</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.064811997640334</v>
+        <v>4.123022309945839</v>
       </c>
       <c r="C16">
-        <v>0.3207131246655877</v>
+        <v>1.174177028667316</v>
       </c>
       <c r="D16">
-        <v>0.02803600377875171</v>
+        <v>0.1295038036155205</v>
       </c>
       <c r="E16">
-        <v>0.06972930430623236</v>
+        <v>0.1363868940956152</v>
       </c>
       <c r="F16">
-        <v>2.893132244308077</v>
+        <v>0.3662959465746809</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
+        <v>0.1621673528512275</v>
+      </c>
+      <c r="I16">
+        <v>0.001937500563862216</v>
+      </c>
+      <c r="J16">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0.1359288870345949</v>
-      </c>
       <c r="K16">
-        <v>2.248193796729907</v>
+        <v>0.1625498545034363</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5916764582854697</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>2.23298181092629</v>
+        <v>0.03983885507445883</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.4675598683000928</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.8915557106686549</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.977623762967028</v>
+        <v>3.937775166306551</v>
       </c>
       <c r="C17">
-        <v>0.3066741231509695</v>
+        <v>1.098013832157704</v>
       </c>
       <c r="D17">
-        <v>0.0268452113727875</v>
+        <v>0.1203128173273313</v>
       </c>
       <c r="E17">
-        <v>0.06748856771721279</v>
+        <v>0.1200938462455632</v>
       </c>
       <c r="F17">
-        <v>2.822381552000991</v>
+        <v>0.3814142407194296</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
+        <v>0.1244000129599243</v>
+      </c>
+      <c r="I17">
+        <v>0.001814436836434119</v>
+      </c>
+      <c r="J17">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0.1324076703564572</v>
-      </c>
       <c r="K17">
-        <v>2.152469326671508</v>
+        <v>0.1752170672994371</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.567580912368264</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>2.22832910638185</v>
+        <v>0.04815778423429506</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.4670112839528855</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.9537464223545129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.927823292987142</v>
+        <v>3.809164261284991</v>
       </c>
       <c r="C18">
-        <v>0.2986592614490178</v>
+        <v>1.007617451331157</v>
       </c>
       <c r="D18">
-        <v>0.02616216361376189</v>
+        <v>0.1090529342247208</v>
       </c>
       <c r="E18">
-        <v>0.06621085364132639</v>
+        <v>0.09803537376176408</v>
       </c>
       <c r="F18">
-        <v>2.782234677107937</v>
+        <v>0.4225639560080836</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
+        <v>0.07159042856444842</v>
+      </c>
+      <c r="I18">
+        <v>0.001541717956572874</v>
+      </c>
+      <c r="J18">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0.1304068416658879</v>
-      </c>
       <c r="K18">
-        <v>2.097798555134631</v>
+        <v>0.195574360572893</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5538232095640296</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>2.225947115471001</v>
+        <v>0.07252116294739963</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.4915470624430469</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1.088438135508895</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.911019168319541</v>
+        <v>3.73568024692031</v>
       </c>
       <c r="C19">
-        <v>0.2959554522408894</v>
+        <v>0.9226081488137368</v>
       </c>
       <c r="D19">
-        <v>0.02593120258022452</v>
+        <v>0.09811454354646543</v>
       </c>
       <c r="E19">
-        <v>0.06578009036669741</v>
+        <v>0.07970096913474833</v>
       </c>
       <c r="F19">
-        <v>2.76873273858898</v>
+        <v>0.4807421502749278</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
+        <v>0.02632118152916263</v>
+      </c>
+      <c r="I19">
+        <v>0.001674139595563062</v>
+      </c>
+      <c r="J19">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0.1297334750703811</v>
-      </c>
       <c r="K19">
-        <v>2.079351921411558</v>
+        <v>0.2237135492949598</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5491818656681815</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>2.225189918040726</v>
+        <v>0.1202843190827778</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.5355351593353603</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1.272580698692963</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.986868543005869</v>
+        <v>3.818704752642077</v>
       </c>
       <c r="C20">
-        <v>0.3081622881351507</v>
+        <v>0.8420977719470955</v>
       </c>
       <c r="D20">
-        <v>0.02697177715472066</v>
+        <v>0.08706741752062896</v>
       </c>
       <c r="E20">
-        <v>0.06772593554252637</v>
+        <v>0.07015326732604077</v>
       </c>
       <c r="F20">
-        <v>2.829855781166458</v>
+        <v>0.5901111598543167</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
+        <v>0.0001231781952513167</v>
+      </c>
+      <c r="I20">
+        <v>0.002028909808300838</v>
+      </c>
+      <c r="J20">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0.1327799460369334</v>
-      </c>
       <c r="K20">
-        <v>2.162618642877845</v>
+        <v>0.2737672807882241</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5701352741834</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>2.228793663217971</v>
+        <v>0.2300592192611788</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.6328279011393363</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.604391948594127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.246045877986717</v>
+        <v>4.289599853923733</v>
       </c>
       <c r="C21">
-        <v>0.3499249889700593</v>
+        <v>0.9189314359445007</v>
       </c>
       <c r="D21">
-        <v>0.0304912508601447</v>
+        <v>0.09481203552294204</v>
       </c>
       <c r="E21">
-        <v>0.07440073904218636</v>
+        <v>0.07243643744351402</v>
       </c>
       <c r="F21">
-        <v>3.041977534322484</v>
+        <v>0.6460237214552365</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
+        <v>0.0003646799792514921</v>
+      </c>
+      <c r="I21">
+        <v>0.003118813353608196</v>
+      </c>
+      <c r="J21">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0.1433178517374216</v>
-      </c>
       <c r="K21">
-        <v>2.447212295965386</v>
+        <v>0.2735736113569693</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6417971014498107</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>2.244509676788496</v>
+        <v>0.2645647620321228</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.7177614511032431</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.724030792891227</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.419084888494353</v>
+        <v>4.600624880727764</v>
       </c>
       <c r="C22">
-        <v>0.3778554073206521</v>
+        <v>0.9709974607875438</v>
       </c>
       <c r="D22">
-        <v>0.03281118589379162</v>
+        <v>0.1002057791790634</v>
       </c>
       <c r="E22">
-        <v>0.07887575971322747</v>
+        <v>0.07397219462568283</v>
       </c>
       <c r="F22">
-        <v>3.186172258537709</v>
+        <v>0.6810927118891783</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
+        <v>0.0008630718553739314</v>
+      </c>
+      <c r="I22">
+        <v>0.003851141146883563</v>
+      </c>
+      <c r="J22">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0.1504532089727633</v>
-      </c>
       <c r="K22">
-        <v>2.637286063018877</v>
+        <v>0.2726313873061201</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6896900677545759</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>2.257693506423863</v>
+        <v>0.2810335045296881</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.7695393568729685</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.797209014405638</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.326368043846514</v>
+        <v>4.434810052535624</v>
       </c>
       <c r="C23">
-        <v>0.3628849529063416</v>
+        <v>0.9400443153708977</v>
       </c>
       <c r="D23">
-        <v>0.03157102267834233</v>
+        <v>0.09703264964608138</v>
       </c>
       <c r="E23">
-        <v>0.07647633852743851</v>
+        <v>0.07318671714494651</v>
       </c>
       <c r="F23">
-        <v>3.10866843381325</v>
+        <v>0.664593487379193</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
+        <v>0.0005740119330877036</v>
+      </c>
+      <c r="I23">
+        <v>0.003145232836444301</v>
+      </c>
+      <c r="J23">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0.1466206645293298</v>
-      </c>
       <c r="K23">
-        <v>2.535434952043033</v>
+        <v>0.2745621035616992</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6640239251225495</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>2.250375397941525</v>
+        <v>0.2720150928241054</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.7417546120188732</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.765391384377466</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.982687970913503</v>
+        <v>3.807040931096878</v>
       </c>
       <c r="C24">
-        <v>0.307489314321316</v>
+        <v>0.8285066476720999</v>
       </c>
       <c r="D24">
-        <v>0.02691455195608228</v>
+        <v>0.08552490834356519</v>
       </c>
       <c r="E24">
-        <v>0.06761858894389405</v>
+        <v>0.07015467047980861</v>
       </c>
       <c r="F24">
-        <v>2.826475042923903</v>
+        <v>0.6002976078971187</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
+        <v>8.789243835405358E-06</v>
+      </c>
+      <c r="I24">
+        <v>0.00155789893242364</v>
+      </c>
+      <c r="J24">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0.1326115671226447</v>
-      </c>
       <c r="K24">
-        <v>2.158029014585935</v>
+        <v>0.2805054807529537</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5689801524954561</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>2.228582727850579</v>
+        <v>0.2383657716371914</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.6369403478470659</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.638496421568192</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.625017894742996</v>
+        <v>3.130449903349302</v>
       </c>
       <c r="C25">
-        <v>0.2499836425149624</v>
+        <v>0.7090284037993513</v>
       </c>
       <c r="D25">
-        <v>0.02196161995578905</v>
+        <v>0.07314987085634073</v>
       </c>
       <c r="E25">
-        <v>0.05848192196359037</v>
+        <v>0.06685658352819934</v>
       </c>
       <c r="F25">
-        <v>2.542680823807032</v>
+        <v>0.5347154381486234</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
+        <v>0.000422622327352129</v>
+      </c>
+      <c r="I25">
+        <v>0.001088895527546541</v>
+      </c>
+      <c r="J25">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0.1184224914993095</v>
-      </c>
       <c r="K25">
-        <v>1.765458510306985</v>
+        <v>0.2889786694719128</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4702658312069588</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>2.216186645003376</v>
+        <v>0.2022981086435962</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.5241419418014317</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.512986142862644</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_62/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_62/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.632484409972676</v>
+        <v>2.638733324525674</v>
       </c>
       <c r="C2">
-        <v>0.6141382834949241</v>
+        <v>0.6376134663744324</v>
       </c>
       <c r="D2">
-        <v>0.06336503191798215</v>
+        <v>0.06570026858853595</v>
       </c>
       <c r="E2">
-        <v>0.06448293646744263</v>
+        <v>0.06411396285209769</v>
       </c>
       <c r="F2">
-        <v>0.4948220363463776</v>
+        <v>0.4604668963066914</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.001484720017704499</v>
+        <v>0.001055358064397161</v>
       </c>
       <c r="I2">
-        <v>0.0009705785897966557</v>
+        <v>0.000719219979090191</v>
       </c>
       <c r="J2">
-        <v>0.02672462365074526</v>
+        <v>0.07607150459155762</v>
       </c>
       <c r="K2">
-        <v>0.3005108014680893</v>
+        <v>0.2693778514216909</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1416001748279392</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.06829761733904327</v>
       </c>
       <c r="N2">
-        <v>0.1753455562028918</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.4408275013775196</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.1821799898995238</v>
       </c>
       <c r="Q2">
-        <v>1.447415806103834</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.443262599511975</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.327301070247003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.294220610329717</v>
+        <v>2.300948008205978</v>
       </c>
       <c r="C3">
-        <v>0.5542852738255419</v>
+        <v>0.5679094983530035</v>
       </c>
       <c r="D3">
-        <v>0.05713371565010306</v>
+        <v>0.05856325888485969</v>
       </c>
       <c r="E3">
-        <v>0.06278058226022298</v>
+        <v>0.06248893120997878</v>
       </c>
       <c r="F3">
-        <v>0.4660447049935428</v>
+        <v>0.436448806366684</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.002633785944181122</v>
+        <v>0.001977969355307918</v>
       </c>
       <c r="I3">
-        <v>0.001754925103576888</v>
+        <v>0.001172793220674873</v>
       </c>
       <c r="J3">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142331</v>
       </c>
       <c r="K3">
-        <v>0.3071136621697867</v>
+        <v>0.2778424615565243</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1475489817290931</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.06987958898836055</v>
       </c>
       <c r="N3">
-        <v>0.1574266548414229</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.3845479470238686</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.1640327897316851</v>
       </c>
       <c r="Q3">
-        <v>1.397011671941826</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.3865309235172418</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.291356267319827</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.086173772220093</v>
+        <v>2.093100085619312</v>
       </c>
       <c r="C4">
-        <v>0.5177043221844997</v>
+        <v>0.5254560112130662</v>
       </c>
       <c r="D4">
-        <v>0.05331650930106946</v>
+        <v>0.0542061534605196</v>
       </c>
       <c r="E4">
-        <v>0.06171085442941338</v>
+        <v>0.06147146591150676</v>
       </c>
       <c r="F4">
-        <v>0.4489487395714349</v>
+        <v>0.4221474207220197</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.003533412972618111</v>
+        <v>0.002713361079609622</v>
       </c>
       <c r="I4">
-        <v>0.002472002623088887</v>
+        <v>0.001650910432272834</v>
       </c>
       <c r="J4">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153714</v>
       </c>
       <c r="K4">
-        <v>0.3115197062098929</v>
+        <v>0.2833206173292968</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1513583161868155</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.07141811222353756</v>
       </c>
       <c r="N4">
-        <v>0.146444576483951</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.3499724855471911</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.1529233532102339</v>
       </c>
       <c r="Q4">
-        <v>1.367826330685219</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.3516693813351424</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.27064845422565</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.001246220374753</v>
+        <v>2.00823154473477</v>
       </c>
       <c r="C5">
-        <v>0.5035801590132962</v>
+        <v>0.5089836757215664</v>
       </c>
       <c r="D5">
-        <v>0.0518321757474709</v>
+        <v>0.05250550824592182</v>
       </c>
       <c r="E5">
-        <v>0.06125618447509185</v>
+        <v>0.06104166851867365</v>
       </c>
       <c r="F5">
-        <v>0.441529846908395</v>
+        <v>0.4158761394201704</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.003948775190295462</v>
+        <v>0.003055449676697131</v>
       </c>
       <c r="I5">
-        <v>0.002894447213571016</v>
+        <v>0.001979205135938855</v>
       </c>
       <c r="J5">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153728</v>
       </c>
       <c r="K5">
-        <v>0.3130048603298903</v>
+        <v>0.2852705660143329</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1527640759972861</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.07210748225861163</v>
       </c>
       <c r="N5">
-        <v>0.1420255316354897</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.3359109760747145</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1484534662546011</v>
       </c>
       <c r="Q5">
-        <v>1.354421080629464</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.3374880859222884</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.260747038080083</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.987080286330297</v>
+        <v>1.994073523677912</v>
       </c>
       <c r="C6">
-        <v>0.5021530149125226</v>
+        <v>0.5071708052884105</v>
       </c>
       <c r="D6">
-        <v>0.05167101446743061</v>
+        <v>0.05230826671441235</v>
       </c>
       <c r="E6">
-        <v>0.06116555885139663</v>
+        <v>0.06095813094560087</v>
       </c>
       <c r="F6">
-        <v>0.4395873085075905</v>
+        <v>0.4141714366573339</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.004023294736070437</v>
+        <v>0.003117077700773074</v>
       </c>
       <c r="I6">
-        <v>0.003065605928558313</v>
+        <v>0.002150167516300705</v>
       </c>
       <c r="J6">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142324</v>
       </c>
       <c r="K6">
-        <v>0.3127740757480097</v>
+        <v>0.2851716079908453</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1527740985572272</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.07213434337468527</v>
       </c>
       <c r="N6">
-        <v>0.1413564666890323</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.3336191732138829</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1477733249077176</v>
       </c>
       <c r="Q6">
-        <v>1.349859582403212</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.3351745147081786</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.256942375572066</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.084870280013035</v>
+        <v>2.091796149835943</v>
       </c>
       <c r="C7">
-        <v>0.5200245083048856</v>
+        <v>0.5277546059177212</v>
       </c>
       <c r="D7">
-        <v>0.05353013482649516</v>
+        <v>0.0544162094245948</v>
       </c>
       <c r="E7">
-        <v>0.06166532160115712</v>
+        <v>0.0614346173328042</v>
       </c>
       <c r="F7">
-        <v>0.4468851434676253</v>
+        <v>0.4202372266287924</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.003545804745632763</v>
+        <v>0.002723841074019351</v>
       </c>
       <c r="I7">
-        <v>0.002728073953451648</v>
+        <v>0.001946882873945732</v>
       </c>
       <c r="J7">
-        <v>0.0267246236506935</v>
+        <v>0.0759357156874878</v>
       </c>
       <c r="K7">
-        <v>0.3102246853195503</v>
+        <v>0.2821901636157218</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1507829322947103</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.07114883922681781</v>
       </c>
       <c r="N7">
-        <v>0.1465619849961968</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.3499019951521234</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.1530324275557646</v>
       </c>
       <c r="Q7">
-        <v>1.361199594148843</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.3515924102011994</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.264578393494219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.515699441809659</v>
+        <v>2.52213480096691</v>
       </c>
       <c r="C8">
-        <v>0.5968284924722411</v>
+        <v>0.6169075016910881</v>
       </c>
       <c r="D8">
-        <v>0.06152793142305768</v>
+        <v>0.06354850811534618</v>
       </c>
       <c r="E8">
-        <v>0.06385224865709471</v>
+        <v>0.06352195024031859</v>
       </c>
       <c r="F8">
-        <v>0.4821793038425923</v>
+        <v>0.4496890243105796</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.001845385627024076</v>
+        <v>0.001342346840713327</v>
       </c>
       <c r="I8">
-        <v>0.001488726999617995</v>
+        <v>0.001182925515559319</v>
       </c>
       <c r="J8">
-        <v>0.0267246236506935</v>
+        <v>0.07609806137284014</v>
       </c>
       <c r="K8">
-        <v>0.3009917524647712</v>
+        <v>0.2707496549877177</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.142926579516935</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.06829460156170875</v>
       </c>
       <c r="N8">
-        <v>0.169399683306068</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.4215824554783225</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.176143272051938</v>
       </c>
       <c r="Q8">
-        <v>1.42115111314456</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.42385719842963</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.306840625931073</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.358667489443633</v>
+        <v>3.363275456249369</v>
       </c>
       <c r="C9">
-        <v>0.7445203806428253</v>
+        <v>0.790178474774109</v>
       </c>
       <c r="D9">
-        <v>0.0768798259872554</v>
+        <v>0.08125343443703059</v>
       </c>
       <c r="E9">
-        <v>0.06803145642235564</v>
+        <v>0.06752439854890113</v>
       </c>
       <c r="F9">
-        <v>0.5598595169010352</v>
+        <v>0.5145886117201997</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0001544121566294798</v>
+        <v>6.4409679366495E-05</v>
       </c>
       <c r="I9">
-        <v>0.0006895287860784194</v>
+        <v>0.000941871537412986</v>
       </c>
       <c r="J9">
-        <v>0.0267246236506935</v>
+        <v>0.07618838127587857</v>
       </c>
       <c r="K9">
-        <v>0.288150539482654</v>
+        <v>0.2526728803477027</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1296791931736028</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.06789055384189702</v>
       </c>
       <c r="N9">
-        <v>0.2140939192068245</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.5619031470199403</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.2214799413250148</v>
       </c>
       <c r="Q9">
-        <v>1.565335125198231</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.5652473256431279</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.412025787203675</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.982977628683102</v>
+        <v>3.98565238343997</v>
       </c>
       <c r="C10">
-        <v>0.8653124733210973</v>
+        <v>0.9297079718863301</v>
       </c>
       <c r="D10">
-        <v>0.0895965199263955</v>
+        <v>0.09569952338476639</v>
       </c>
       <c r="E10">
-        <v>0.07102654139311149</v>
+        <v>0.07065023812669935</v>
       </c>
       <c r="F10">
-        <v>0.6100149036350118</v>
+        <v>0.5563005157500172</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0002456669562787006</v>
+        <v>0.0003020873401720081</v>
       </c>
       <c r="I10">
-        <v>0.001627231857080247</v>
+        <v>0.002092354345768932</v>
       </c>
       <c r="J10">
-        <v>0.0267246236506935</v>
+        <v>0.07897366448939458</v>
       </c>
       <c r="K10">
-        <v>0.2744312469078807</v>
+        <v>0.2362523627752751</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1190772458288922</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.06856901597024212</v>
       </c>
       <c r="N10">
-        <v>0.2356620833157308</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.6579960848869604</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.2432794605799558</v>
       </c>
       <c r="Q10">
-        <v>1.64791660720212</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.6619481466806079</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.469585846595351</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.315620885257431</v>
+        <v>4.318084166190943</v>
       </c>
       <c r="C11">
-        <v>1.013937208183307</v>
+        <v>1.077196834877498</v>
       </c>
       <c r="D11">
-        <v>0.1072830813225991</v>
+        <v>0.1133361048953105</v>
       </c>
       <c r="E11">
-        <v>0.07967382460315697</v>
+        <v>0.08108642270613053</v>
       </c>
       <c r="F11">
-        <v>0.5495694416018253</v>
+        <v>0.5052498389700588</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.01881994337801629</v>
+        <v>0.01887137834606634</v>
       </c>
       <c r="I11">
-        <v>0.002577003180069148</v>
+        <v>0.003167591750240284</v>
       </c>
       <c r="J11">
-        <v>0.0267246236506935</v>
+        <v>0.09407249181950306</v>
       </c>
       <c r="K11">
-        <v>0.2224522403149258</v>
+        <v>0.1946266317834073</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1031921258679187</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.05463477945063566</v>
       </c>
       <c r="N11">
-        <v>0.1568896768229777</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.6393883404953868</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.1623521680771702</v>
       </c>
       <c r="Q11">
-        <v>1.418750383199068</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.6427593294605032</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.27514795431992</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.466909121445042</v>
+        <v>4.469636796484338</v>
       </c>
       <c r="C12">
-        <v>1.117301038087618</v>
+        <v>1.173704630422151</v>
       </c>
       <c r="D12">
-        <v>0.1201904693639335</v>
+        <v>0.1256388355519391</v>
       </c>
       <c r="E12">
-        <v>0.09591169254292176</v>
+        <v>0.09830354746716807</v>
       </c>
       <c r="F12">
-        <v>0.4928901766786211</v>
+        <v>0.4574598880835339</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.05746705503517546</v>
+        <v>0.05750939168407143</v>
       </c>
       <c r="I12">
-        <v>0.002706197791013665</v>
+        <v>0.003299270674604671</v>
       </c>
       <c r="J12">
-        <v>0.0267246236506935</v>
+        <v>0.1054405423656988</v>
       </c>
       <c r="K12">
-        <v>0.1891413822620649</v>
+        <v>0.1689713106700648</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.09458282773718096</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.04454297814524644</v>
       </c>
       <c r="N12">
-        <v>0.1016840783602078</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.603400992569199</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.1055836997228212</v>
       </c>
       <c r="Q12">
-        <v>1.22878503477628</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.6061861870832246</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1.116017627232196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.485569996077061</v>
+        <v>4.488987633254624</v>
       </c>
       <c r="C13">
-        <v>1.194640041210192</v>
+        <v>1.239386542272712</v>
       </c>
       <c r="D13">
-        <v>0.1303918885002275</v>
+        <v>0.1347673294127247</v>
       </c>
       <c r="E13">
-        <v>0.1184804535612898</v>
+        <v>0.1212322900879421</v>
       </c>
       <c r="F13">
-        <v>0.432570205785602</v>
+        <v>0.4063145488092061</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.1131585501013177</v>
+        <v>0.1131853022326652</v>
       </c>
       <c r="I13">
-        <v>0.00250783127178611</v>
+        <v>0.003090219855957699</v>
       </c>
       <c r="J13">
-        <v>0.02672462365057982</v>
+        <v>0.1026584643119293</v>
       </c>
       <c r="K13">
-        <v>0.1658914863962835</v>
+        <v>0.1519146388826416</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.08955260824908695</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.03651753652930267</v>
       </c>
       <c r="N13">
-        <v>0.06179247813051703</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.5524201927694818</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.064518130594724</v>
       </c>
       <c r="Q13">
-        <v>1.047220358818635</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.5545782651970512</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.9646389482471278</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.438380797960008</v>
+        <v>4.442461270193917</v>
       </c>
       <c r="C14">
-        <v>1.238244724024412</v>
+        <v>1.272446087343326</v>
       </c>
       <c r="D14">
-        <v>0.1364426993374366</v>
+        <v>0.1398309348439568</v>
       </c>
       <c r="E14">
-        <v>0.13819355090396</v>
+        <v>0.1408206417698246</v>
       </c>
       <c r="F14">
-        <v>0.3888227358366407</v>
+        <v>0.3689608496491559</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.1624620577456284</v>
+        <v>0.1624731795120624</v>
       </c>
       <c r="I14">
-        <v>0.002315369831651815</v>
+        <v>0.002896362562170296</v>
       </c>
       <c r="J14">
-        <v>0.02672462365057982</v>
+        <v>0.09486545036309479</v>
       </c>
       <c r="K14">
-        <v>0.1547489916279146</v>
+        <v>0.1441886995031778</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.08749663157745258</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.03223923426839814</v>
       </c>
       <c r="N14">
-        <v>0.04314292235761208</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.5103799706195957</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.04528448393044826</v>
       </c>
       <c r="Q14">
-        <v>0.9248817969764218</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.5120837658920578</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.8624684883141782</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.398124147229908</v>
+        <v>4.402453918364415</v>
       </c>
       <c r="C15">
-        <v>1.243473714788479</v>
+        <v>1.274297921097343</v>
       </c>
       <c r="D15">
-        <v>0.1373049463050222</v>
+        <v>0.1403746934703776</v>
       </c>
       <c r="E15">
-        <v>0.143112272805876</v>
+        <v>0.1456289964338531</v>
       </c>
       <c r="F15">
-        <v>0.3766116008439511</v>
+        <v>0.3584512829858326</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1749546269866045</v>
+        <v>0.1749572004393514</v>
       </c>
       <c r="I15">
-        <v>0.00231593473891234</v>
+        <v>0.002913766215426605</v>
       </c>
       <c r="J15">
-        <v>0.02672462365057982</v>
+        <v>0.09097538657407966</v>
       </c>
       <c r="K15">
-        <v>0.1532387618361968</v>
+        <v>0.1433732702698496</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.08733777620748384</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.03148906148823549</v>
       </c>
       <c r="N15">
-        <v>0.03980902387549889</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.4970595702730378</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.04185796888444671</v>
       </c>
       <c r="Q15">
-        <v>0.8938526956813035</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.4986398475733864</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.8366005743914826</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.123022309945839</v>
+        <v>4.12814924518193</v>
       </c>
       <c r="C16">
-        <v>1.174177028667316</v>
+        <v>1.199074576291935</v>
       </c>
       <c r="D16">
-        <v>0.1295038036155205</v>
+        <v>0.1320176198790364</v>
       </c>
       <c r="E16">
-        <v>0.1363868940956152</v>
+        <v>0.1385642581597679</v>
       </c>
       <c r="F16">
-        <v>0.3662959465746809</v>
+        <v>0.3495767985551552</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1621673528512275</v>
+        <v>0.1621110506930421</v>
       </c>
       <c r="I16">
-        <v>0.001937500563862216</v>
+        <v>0.002504029036475508</v>
       </c>
       <c r="J16">
-        <v>0.02672462365057982</v>
+        <v>0.07852597926787475</v>
       </c>
       <c r="K16">
-        <v>0.1625498545034363</v>
+        <v>0.1521148439740863</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.0902446199064677</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.03367485237993151</v>
       </c>
       <c r="N16">
-        <v>0.03983885507445883</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.4675598683000928</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.04212973582764512</v>
       </c>
       <c r="Q16">
-        <v>0.8915557106686549</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.469022548919817</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.8375919364372777</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.937775166306551</v>
+        <v>3.943130932506847</v>
       </c>
       <c r="C17">
-        <v>1.098013832157704</v>
+        <v>1.12420092877133</v>
       </c>
       <c r="D17">
-        <v>0.1203128173273313</v>
+        <v>0.1229497104830273</v>
       </c>
       <c r="E17">
-        <v>0.1200938462455632</v>
+        <v>0.1221698711480386</v>
       </c>
       <c r="F17">
-        <v>0.3814142407194296</v>
+        <v>0.3625501617823517</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1244000129599243</v>
+        <v>0.1243015198095065</v>
       </c>
       <c r="I17">
-        <v>0.001814436836434119</v>
+        <v>0.002352685573167257</v>
       </c>
       <c r="J17">
-        <v>0.02672462365057982</v>
+        <v>0.07630534183234516</v>
       </c>
       <c r="K17">
-        <v>0.1752170672994371</v>
+        <v>0.1627858706994489</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.09395632133848553</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.03723760415882715</v>
       </c>
       <c r="N17">
-        <v>0.04815778423429506</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.4670112839528855</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.05089164299973348</v>
       </c>
       <c r="Q17">
-        <v>0.9537464223545129</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.4686189405967127</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.892228114890159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.809164261284991</v>
+        <v>3.814329321972082</v>
       </c>
       <c r="C18">
-        <v>1.007617451331157</v>
+        <v>1.040640442069446</v>
       </c>
       <c r="D18">
-        <v>0.1090529342247208</v>
+        <v>0.1123272111923512</v>
       </c>
       <c r="E18">
-        <v>0.09803537376176408</v>
+        <v>0.09996785570155708</v>
       </c>
       <c r="F18">
-        <v>0.4225639560080836</v>
+        <v>0.3978387737393518</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07159042856444842</v>
+        <v>0.07147905352078254</v>
       </c>
       <c r="I18">
-        <v>0.001541717956572874</v>
+        <v>0.002016658619090173</v>
       </c>
       <c r="J18">
-        <v>0.02672462365057982</v>
+        <v>0.07595859146309314</v>
       </c>
       <c r="K18">
-        <v>0.195574360572893</v>
+        <v>0.1789485655110372</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.09991941164912355</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.04308893237182776</v>
       </c>
       <c r="N18">
-        <v>0.07252116294739963</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.4915470624430469</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.07607569256635216</v>
       </c>
       <c r="Q18">
-        <v>1.088438135508895</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.4935645320376381</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1.00743688593947</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.73568024692031</v>
+        <v>3.740339421068597</v>
       </c>
       <c r="C19">
-        <v>0.9226081488137368</v>
+        <v>0.9651501663871613</v>
       </c>
       <c r="D19">
-        <v>0.09811454354646543</v>
+        <v>0.1022550091168029</v>
       </c>
       <c r="E19">
-        <v>0.07970096913474833</v>
+        <v>0.0810806835766833</v>
       </c>
       <c r="F19">
-        <v>0.4807421502749278</v>
+        <v>0.4472182181720612</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02632118152916263</v>
+        <v>0.02623633568092032</v>
       </c>
       <c r="I19">
-        <v>0.001674139595563062</v>
+        <v>0.002178461335269333</v>
       </c>
       <c r="J19">
-        <v>0.02672462365057982</v>
+        <v>0.0759263476844998</v>
       </c>
       <c r="K19">
-        <v>0.2237135492949598</v>
+        <v>0.2005245392191561</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1079863670495715</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.05120386753464423</v>
       </c>
       <c r="N19">
-        <v>0.1202843190827778</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.5355351593353603</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.1251477919185433</v>
       </c>
       <c r="Q19">
-        <v>1.272580698692963</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.5381612145161512</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.162036125978929</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.818704752642077</v>
+        <v>3.821956702685725</v>
       </c>
       <c r="C20">
-        <v>0.8420977719470955</v>
+        <v>0.9016458605263722</v>
       </c>
       <c r="D20">
-        <v>0.08706741752062896</v>
+        <v>0.09271616469524702</v>
       </c>
       <c r="E20">
-        <v>0.07015326732604077</v>
+        <v>0.06978572703890418</v>
       </c>
       <c r="F20">
-        <v>0.5901111598543167</v>
+        <v>0.5392481373581717</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.0001231781952513167</v>
+        <v>0.0001502208572503605</v>
       </c>
       <c r="I20">
-        <v>0.002028909808300838</v>
+        <v>0.002608921243427709</v>
       </c>
       <c r="J20">
-        <v>0.02672462365057982</v>
+        <v>0.07642603823835525</v>
       </c>
       <c r="K20">
-        <v>0.2737672807882241</v>
+        <v>0.2370272911512465</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1205362532913021</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.06687740956013144</v>
       </c>
       <c r="N20">
-        <v>0.2300592192611788</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.6328279011393363</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.2375829692548308</v>
       </c>
       <c r="Q20">
-        <v>1.604391948594127</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.6366073278869564</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.434973034885502</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.289599853923733</v>
+        <v>4.290951531789517</v>
       </c>
       <c r="C21">
-        <v>0.9189314359445007</v>
+        <v>0.9947052557301959</v>
       </c>
       <c r="D21">
-        <v>0.09481203552294204</v>
+        <v>0.1019456447955633</v>
       </c>
       <c r="E21">
-        <v>0.07243643744351402</v>
+        <v>0.07181404788515655</v>
       </c>
       <c r="F21">
-        <v>0.6460237214552365</v>
+        <v>0.585947755659646</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.0003646799792514921</v>
+        <v>0.000461660618339188</v>
       </c>
       <c r="I21">
-        <v>0.003118813353608196</v>
+        <v>0.003755098127245837</v>
       </c>
       <c r="J21">
-        <v>0.02672462365057982</v>
+        <v>0.1039450029752018</v>
       </c>
       <c r="K21">
-        <v>0.2735736113569693</v>
+        <v>0.2323558640075234</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1153899976438453</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.07118987087443784</v>
       </c>
       <c r="N21">
-        <v>0.2645647620321228</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.7177614511032431</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.2727193300373898</v>
       </c>
       <c r="Q21">
-        <v>1.724030792891227</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.7221286515353924</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.525890548071658</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.600624880727764</v>
+        <v>4.600596084620463</v>
       </c>
       <c r="C22">
-        <v>0.9709974607875438</v>
+        <v>1.056940977924256</v>
       </c>
       <c r="D22">
-        <v>0.1002057791790634</v>
+        <v>0.1082767011534145</v>
       </c>
       <c r="E22">
-        <v>0.07397219462568283</v>
+        <v>0.07328405067733712</v>
       </c>
       <c r="F22">
-        <v>0.6810927118891783</v>
+        <v>0.6154002791871349</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.0008630718553739314</v>
+        <v>0.000967806180605435</v>
       </c>
       <c r="I22">
-        <v>0.003851141146883563</v>
+        <v>0.004406498417470317</v>
       </c>
       <c r="J22">
-        <v>0.02672462365057982</v>
+        <v>0.1466045079829286</v>
       </c>
       <c r="K22">
-        <v>0.2726313873061201</v>
+        <v>0.2288224049477137</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1118159226409006</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.07430982707005285</v>
       </c>
       <c r="N22">
-        <v>0.2810335045296881</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.7695393568729685</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.2894696652820699</v>
       </c>
       <c r="Q22">
-        <v>1.797209014405638</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.7742244931200446</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.581713829202329</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.434810052535624</v>
+        <v>4.435529436773265</v>
       </c>
       <c r="C23">
-        <v>0.9400443153708977</v>
+        <v>1.020459811890277</v>
       </c>
       <c r="D23">
-        <v>0.09703264964608138</v>
+        <v>0.1045970681220112</v>
       </c>
       <c r="E23">
-        <v>0.07318671714494651</v>
+        <v>0.0725173621507591</v>
       </c>
       <c r="F23">
-        <v>0.664593487379193</v>
+        <v>0.6017033368182609</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.0005740119330877036</v>
+        <v>0.0006780301573482417</v>
       </c>
       <c r="I23">
-        <v>0.003145232836444301</v>
+        <v>0.003687480055861947</v>
       </c>
       <c r="J23">
-        <v>0.02672462365057982</v>
+        <v>0.1149997787805219</v>
       </c>
       <c r="K23">
-        <v>0.2745621035616992</v>
+        <v>0.231879616006232</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.114103590255235</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.07310785347453574</v>
       </c>
       <c r="N23">
-        <v>0.2720150928241054</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.7417546120188732</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.2803079981148073</v>
       </c>
       <c r="Q23">
-        <v>1.765391384377466</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.7462781246328163</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.558408879954868</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.807040931096878</v>
+        <v>3.810239232522065</v>
       </c>
       <c r="C24">
-        <v>0.8285066476720999</v>
+        <v>0.8884871231587113</v>
       </c>
       <c r="D24">
-        <v>0.08552490834356519</v>
+        <v>0.09121137754367936</v>
       </c>
       <c r="E24">
-        <v>0.07015467047980861</v>
+        <v>0.06958870779561632</v>
       </c>
       <c r="F24">
-        <v>0.6002976078971187</v>
+        <v>0.548050547099038</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>8.789243835405358E-06</v>
+        <v>4.078521902117771E-05</v>
       </c>
       <c r="I24">
-        <v>0.00155789893242364</v>
+        <v>0.002040408456640996</v>
       </c>
       <c r="J24">
-        <v>0.02672462365057982</v>
+        <v>0.076368825553498</v>
       </c>
       <c r="K24">
-        <v>0.2805054807529537</v>
+        <v>0.2423507046363866</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1225130340677385</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.06888871050671597</v>
       </c>
       <c r="N24">
-        <v>0.2383657716371914</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.6369403478470659</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.246114138229288</v>
       </c>
       <c r="Q24">
-        <v>1.638496421568192</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.6407962914676943</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.464079463422109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.130449903349302</v>
+        <v>3.135665063336432</v>
       </c>
       <c r="C25">
-        <v>0.7090284037993513</v>
+        <v>0.7476959734678985</v>
       </c>
       <c r="D25">
-        <v>0.07314987085634073</v>
+        <v>0.07687673800256789</v>
       </c>
       <c r="E25">
-        <v>0.06685658352819934</v>
+        <v>0.06641427730339178</v>
       </c>
       <c r="F25">
-        <v>0.5347154381486234</v>
+        <v>0.4933121178792561</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.000422622327352129</v>
+        <v>0.0002448392994826021</v>
       </c>
       <c r="I25">
-        <v>0.001088895527546541</v>
+        <v>0.001307007334555799</v>
       </c>
       <c r="J25">
-        <v>0.02672462365057982</v>
+        <v>0.07595196022662787</v>
       </c>
       <c r="K25">
-        <v>0.2889786694719128</v>
+        <v>0.2553390688421509</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1323307671769793</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.06681775675940926</v>
       </c>
       <c r="N25">
-        <v>0.2022981086435962</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.5241419418014317</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.2094890965307954</v>
       </c>
       <c r="Q25">
-        <v>1.512986142862644</v>
+        <v>0.5271996653947824</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.371693111388367</v>
       </c>
     </row>
   </sheetData>
